--- a/BackTest/2019-11-01 BackTest CMT.xlsx
+++ b/BackTest/2019-11-01 BackTest CMT.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1.299999999999994</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>9.090909090909268</v>
+      </c>
       <c r="L12" t="n">
         <v>23.15</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1.399999999999991</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>16.66666666666671</v>
+      </c>
       <c r="L13" t="n">
         <v>23.17</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.399999999999991</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>16.66666666666671</v>
+      </c>
       <c r="L14" t="n">
         <v>23.19</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.399999999999991</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>23.21</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.399999999999991</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>25.00000000000011</v>
+      </c>
       <c r="L16" t="n">
         <v>23.21</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1.699999999999992</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-33.3333333333336</v>
+      </c>
       <c r="L17" t="n">
         <v>23.2</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1.999999999999993</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-9.090909090909268</v>
+      </c>
       <c r="L18" t="n">
         <v>23.2</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>2.099999999999994</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" t="n">
         <v>23.2</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>2.099999999999994</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-9.090909090908914</v>
+      </c>
       <c r="L20" t="n">
         <v>23.2</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>2.099999999999994</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>24.99999999999989</v>
+      </c>
       <c r="L21" t="n">
         <v>23.19</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>2.099999999999994</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>14.28571428571443</v>
+      </c>
       <c r="L22" t="n">
         <v>23.21</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>2.399999999999995</v>
       </c>
       <c r="K23" t="n">
-        <v>27.27272727272739</v>
+        <v>40.00000000000007</v>
       </c>
       <c r="L23" t="n">
         <v>23.25</v>
@@ -1466,7 +1488,7 @@
         <v>2.399999999999995</v>
       </c>
       <c r="K24" t="n">
-        <v>27.27272727272739</v>
+        <v>40.00000000000007</v>
       </c>
       <c r="L24" t="n">
         <v>23.29</v>
@@ -1515,7 +1537,7 @@
         <v>2.599999999999998</v>
       </c>
       <c r="K25" t="n">
-        <v>16.66666666666662</v>
+        <v>16.66666666666652</v>
       </c>
       <c r="L25" t="n">
         <v>23.31</v>
@@ -1564,7 +1586,7 @@
         <v>2.800000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>16.66666666666674</v>
+        <v>63.6363636363634</v>
       </c>
       <c r="L26" t="n">
         <v>23.35</v>
@@ -1613,7 +1635,7 @@
         <v>2.900000000000002</v>
       </c>
       <c r="K27" t="n">
-        <v>21.73913043478257</v>
+        <v>33.33333333333307</v>
       </c>
       <c r="L27" t="n">
         <v>23.41</v>
@@ -1662,7 +1684,7 @@
         <v>3.200000000000003</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>-9.09090909090915</v>
       </c>
       <c r="L28" t="n">
         <v>23.41000000000001</v>
@@ -1711,7 +1733,7 @@
         <v>3.200000000000003</v>
       </c>
       <c r="K29" t="n">
-        <v>-4.347826086956576</v>
+        <v>-9.09090909090915</v>
       </c>
       <c r="L29" t="n">
         <v>23.40000000000001</v>
@@ -1760,7 +1782,7 @@
         <v>3.300000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>-8.333333333333297</v>
+        <v>-16.66666666666652</v>
       </c>
       <c r="L30" t="n">
         <v>23.38000000000001</v>
@@ -1809,7 +1831,7 @@
         <v>3.300000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>-13.04347826086942</v>
+        <v>-16.66666666666652</v>
       </c>
       <c r="L31" t="n">
         <v>23.36000000000001</v>
@@ -1860,7 +1882,7 @@
         <v>3.400000000000002</v>
       </c>
       <c r="K32" t="n">
-        <v>-4.76190476190481</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L32" t="n">
         <v>23.33000000000001</v>
@@ -1911,7 +1933,7 @@
         <v>3.400000000000002</v>
       </c>
       <c r="K33" t="n">
-        <v>-9.999999999999911</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L33" t="n">
         <v>23.27000000000001</v>
@@ -1962,7 +1984,7 @@
         <v>3.400000000000002</v>
       </c>
       <c r="K34" t="n">
-        <v>-9.999999999999911</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L34" t="n">
         <v>23.21000000000001</v>
@@ -2013,7 +2035,7 @@
         <v>3.500000000000004</v>
       </c>
       <c r="K35" t="n">
-        <v>-14.28571428571424</v>
+        <v>-100</v>
       </c>
       <c r="L35" t="n">
         <v>23.16000000000001</v>
@@ -2064,7 +2086,7 @@
         <v>3.600000000000005</v>
       </c>
       <c r="K36" t="n">
-        <v>-9.090909090909003</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L36" t="n">
         <v>23.10000000000001</v>
@@ -2115,7 +2137,7 @@
         <v>3.600000000000005</v>
       </c>
       <c r="K37" t="n">
-        <v>5.263157894736882</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L37" t="n">
         <v>23.05000000000001</v>
@@ -2166,7 +2188,7 @@
         <v>3.700000000000006</v>
       </c>
       <c r="K38" t="n">
-        <v>-5.882352941176299</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L38" t="n">
         <v>23.04000000000001</v>
@@ -2217,7 +2239,7 @@
         <v>3.700000000000006</v>
       </c>
       <c r="K39" t="n">
-        <v>-12.49999999999986</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>23.03000000000001</v>
@@ -2268,7 +2290,7 @@
         <v>3.700000000000006</v>
       </c>
       <c r="K40" t="n">
-        <v>-12.49999999999986</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>23.03000000000001</v>
@@ -2319,7 +2341,7 @@
         <v>3.800000000000008</v>
       </c>
       <c r="K41" t="n">
-        <v>-17.64705882352931</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>23.02000000000001</v>
@@ -2370,7 +2392,7 @@
         <v>4.000000000000007</v>
       </c>
       <c r="K42" t="n">
-        <v>-26.31578947368403</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L42" t="n">
         <v>23.00000000000001</v>
@@ -2421,7 +2443,7 @@
         <v>4.100000000000005</v>
       </c>
       <c r="K43" t="n">
-        <v>-41.17647058823522</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L43" t="n">
         <v>22.99000000000001</v>
@@ -2472,7 +2494,7 @@
         <v>4.200000000000003</v>
       </c>
       <c r="K44" t="n">
-        <v>-44.44444444444429</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L44" t="n">
         <v>22.97000000000001</v>
@@ -2523,7 +2545,7 @@
         <v>4.500000000000004</v>
       </c>
       <c r="K45" t="n">
-        <v>-15.78947368421033</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L45" t="n">
         <v>22.99000000000001</v>
@@ -2574,7 +2596,7 @@
         <v>4.500000000000004</v>
       </c>
       <c r="K46" t="n">
-        <v>-29.41176470588231</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L46" t="n">
         <v>23.00000000000001</v>
@@ -2625,7 +2647,7 @@
         <v>4.600000000000001</v>
       </c>
       <c r="K47" t="n">
-        <v>-17.64705882352946</v>
+        <v>11.11111111111093</v>
       </c>
       <c r="L47" t="n">
         <v>23.02000000000001</v>
@@ -2676,7 +2698,7 @@
         <v>4.600000000000001</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>11.11111111111093</v>
       </c>
       <c r="L48" t="n">
         <v>23.03000000000001</v>
@@ -2727,7 +2749,7 @@
         <v>4.600000000000001</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>11.11111111111093</v>
       </c>
       <c r="L49" t="n">
         <v>23.04000000000001</v>
@@ -2778,7 +2800,7 @@
         <v>4.600000000000001</v>
       </c>
       <c r="K50" t="n">
-        <v>7.692307692307525</v>
+        <v>25.00000000000011</v>
       </c>
       <c r="L50" t="n">
         <v>23.05000000000001</v>
@@ -2829,7 +2851,7 @@
         <v>4.600000000000001</v>
       </c>
       <c r="K51" t="n">
-        <v>7.692307692307525</v>
+        <v>66.66666666666707</v>
       </c>
       <c r="L51" t="n">
         <v>23.07000000000001</v>
@@ -2880,7 +2902,7 @@
         <v>4.700000000000003</v>
       </c>
       <c r="K52" t="n">
-        <v>23.07692307692312</v>
+        <v>66.66666666666727</v>
       </c>
       <c r="L52" t="n">
         <v>23.12000000000001</v>
@@ -2931,7 +2953,7 @@
         <v>4.800000000000001</v>
       </c>
       <c r="K53" t="n">
-        <v>28.5714285714285</v>
+        <v>100</v>
       </c>
       <c r="L53" t="n">
         <v>23.17000000000001</v>
@@ -2982,7 +3004,7 @@
         <v>4.800000000000001</v>
       </c>
       <c r="K54" t="n">
-        <v>28.5714285714285</v>
+        <v>100</v>
       </c>
       <c r="L54" t="n">
         <v>23.23000000000001</v>
@@ -3033,7 +3055,7 @@
         <v>4.899999999999999</v>
       </c>
       <c r="K55" t="n">
-        <v>28.57142857142883</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L55" t="n">
         <v>23.25000000000001</v>
@@ -3084,7 +3106,7 @@
         <v>4.999999999999996</v>
       </c>
       <c r="K56" t="n">
-        <v>28.57142857142864</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L56" t="n">
         <v>23.28000000000001</v>
@@ -3135,7 +3157,7 @@
         <v>4.999999999999996</v>
       </c>
       <c r="K57" t="n">
-        <v>28.57142857142864</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L57" t="n">
         <v>23.30000000000001</v>
@@ -3186,7 +3208,7 @@
         <v>5.099999999999994</v>
       </c>
       <c r="K58" t="n">
-        <v>14.28571428571436</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L58" t="n">
         <v>23.31000000000001</v>
@@ -3237,7 +3259,7 @@
         <v>5.299999999999994</v>
       </c>
       <c r="K59" t="n">
-        <v>25.00000000000011</v>
+        <v>42.85714285714344</v>
       </c>
       <c r="L59" t="n">
         <v>23.34000000000001</v>
@@ -3288,7 +3310,7 @@
         <v>5.499999999999993</v>
       </c>
       <c r="K60" t="n">
-        <v>11.11111111111116</v>
+        <v>11.11111111111137</v>
       </c>
       <c r="L60" t="n">
         <v>23.35000000000002</v>
@@ -3339,7 +3361,7 @@
         <v>5.799999999999994</v>
       </c>
       <c r="K61" t="n">
-        <v>30.00000000000028</v>
+        <v>27.27272727272756</v>
       </c>
       <c r="L61" t="n">
         <v>23.39000000000002</v>
@@ -3390,7 +3412,7 @@
         <v>5.899999999999995</v>
       </c>
       <c r="K62" t="n">
-        <v>36.84210526315809</v>
+        <v>9.090909090909268</v>
       </c>
       <c r="L62" t="n">
         <v>23.41000000000002</v>
@@ -3441,7 +3463,7 @@
         <v>5.999999999999996</v>
       </c>
       <c r="K63" t="n">
-        <v>26.31578947368433</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>23.41000000000002</v>
@@ -3492,7 +3514,7 @@
         <v>5.999999999999996</v>
       </c>
       <c r="K64" t="n">
-        <v>33.33333333333333</v>
+        <v>9.090909090908914</v>
       </c>
       <c r="L64" t="n">
         <v>23.41000000000002</v>
@@ -3543,7 +3565,7 @@
         <v>6.099999999999998</v>
       </c>
       <c r="K65" t="n">
-        <v>25</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L65" t="n">
         <v>23.43000000000001</v>
@@ -3594,7 +3616,7 @@
         <v>6.099999999999998</v>
       </c>
       <c r="K66" t="n">
-        <v>25</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L66" t="n">
         <v>23.44000000000001</v>
@@ -3645,7 +3667,7 @@
         <v>6.199999999999999</v>
       </c>
       <c r="K67" t="n">
-        <v>12.49999999999997</v>
+        <v>9.090909090908857</v>
       </c>
       <c r="L67" t="n">
         <v>23.44000000000001</v>
@@ -3696,7 +3718,7 @@
         <v>6.199999999999999</v>
       </c>
       <c r="K68" t="n">
-        <v>12.49999999999997</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L68" t="n">
         <v>23.45000000000001</v>
@@ -3747,7 +3769,7 @@
         <v>6.400000000000002</v>
       </c>
       <c r="K69" t="n">
-        <v>22.22222222222233</v>
+        <v>33.33333333333307</v>
       </c>
       <c r="L69" t="n">
         <v>23.46000000000002</v>
@@ -3798,7 +3820,7 @@
         <v>6.500000000000004</v>
       </c>
       <c r="K70" t="n">
-        <v>15.78947368421055</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L70" t="n">
         <v>23.48000000000001</v>
@@ -3849,7 +3871,7 @@
         <v>6.500000000000004</v>
       </c>
       <c r="K71" t="n">
-        <v>15.78947368421055</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
         <v>23.47000000000001</v>
@@ -3900,7 +3922,7 @@
         <v>6.500000000000004</v>
       </c>
       <c r="K72" t="n">
-        <v>11.11111111111107</v>
+        <v>20</v>
       </c>
       <c r="L72" t="n">
         <v>23.47000000000002</v>
@@ -3951,7 +3973,7 @@
         <v>6.500000000000004</v>
       </c>
       <c r="K73" t="n">
-        <v>5.882352941176544</v>
+        <v>20</v>
       </c>
       <c r="L73" t="n">
         <v>23.48000000000001</v>
@@ -4002,7 +4024,7 @@
         <v>6.600000000000005</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L74" t="n">
         <v>23.48000000000001</v>
@@ -4053,7 +4075,7 @@
         <v>6.700000000000006</v>
       </c>
       <c r="K75" t="n">
-        <v>11.11111111111102</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
         <v>23.48000000000002</v>
@@ -4206,7 +4228,7 @@
         <v>6.800000000000008</v>
       </c>
       <c r="K78" t="n">
-        <v>5.882352941176299</v>
+        <v>-50</v>
       </c>
       <c r="L78" t="n">
         <v>23.47000000000001</v>
@@ -4308,7 +4330,7 @@
         <v>6.900000000000009</v>
       </c>
       <c r="K80" t="n">
-        <v>14.28571428571407</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
         <v>23.46000000000002</v>
@@ -4359,7 +4381,7 @@
         <v>7.000000000000011</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L81" t="n">
         <v>23.47000000000002</v>
@@ -4410,7 +4432,7 @@
         <v>7.000000000000011</v>
       </c>
       <c r="K82" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L82" t="n">
         <v>23.48000000000002</v>
@@ -4512,7 +4534,7 @@
         <v>7.300000000000015</v>
       </c>
       <c r="K84" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
         <v>23.48000000000001</v>
@@ -4563,7 +4585,7 @@
         <v>7.500000000000014</v>
       </c>
       <c r="K85" t="n">
-        <v>-14.28571428571407</v>
+        <v>-14.28571428571385</v>
       </c>
       <c r="L85" t="n">
         <v>23.46000000000002</v>
@@ -4614,7 +4636,7 @@
         <v>7.600000000000016</v>
       </c>
       <c r="K86" t="n">
-        <v>-19.99999999999981</v>
+        <v>-24.99999999999967</v>
       </c>
       <c r="L86" t="n">
         <v>23.44000000000001</v>
@@ -4665,7 +4687,7 @@
         <v>7.600000000000016</v>
       </c>
       <c r="K87" t="n">
-        <v>-14.28571428571407</v>
+        <v>-24.99999999999967</v>
       </c>
       <c r="L87" t="n">
         <v>23.42000000000001</v>
@@ -4716,7 +4738,7 @@
         <v>7.600000000000016</v>
       </c>
       <c r="K88" t="n">
-        <v>-14.28571428571407</v>
+        <v>-42.85714285714256</v>
       </c>
       <c r="L88" t="n">
         <v>23.40000000000001</v>
@@ -4767,7 +4789,7 @@
         <v>7.700000000000017</v>
       </c>
       <c r="K89" t="n">
-        <v>-23.07692307692287</v>
+        <v>-24.99999999999967</v>
       </c>
       <c r="L89" t="n">
         <v>23.38000000000001</v>
@@ -4818,7 +4840,7 @@
         <v>7.700000000000017</v>
       </c>
       <c r="K90" t="n">
-        <v>-16.66666666666642</v>
+        <v>-42.85714285714256</v>
       </c>
       <c r="L90" t="n">
         <v>23.36000000000001</v>
@@ -4869,7 +4891,7 @@
         <v>7.800000000000018</v>
       </c>
       <c r="K91" t="n">
-        <v>-23.07692307692287</v>
+        <v>-49.99999999999978</v>
       </c>
       <c r="L91" t="n">
         <v>23.32000000000001</v>
@@ -4920,7 +4942,7 @@
         <v>7.800000000000018</v>
       </c>
       <c r="K92" t="n">
-        <v>-23.07692307692287</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L92" t="n">
         <v>23.28000000000002</v>
@@ -4971,7 +4993,7 @@
         <v>7.90000000000002</v>
       </c>
       <c r="K93" t="n">
-        <v>-14.28571428571407</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L93" t="n">
         <v>23.27000000000001</v>
@@ -5022,7 +5044,7 @@
         <v>8.000000000000021</v>
       </c>
       <c r="K94" t="n">
-        <v>-14.28571428571407</v>
+        <v>-20</v>
       </c>
       <c r="L94" t="n">
         <v>23.24000000000001</v>
@@ -5073,7 +5095,7 @@
         <v>8.200000000000021</v>
       </c>
       <c r="K95" t="n">
-        <v>-6.666666666666698</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L95" t="n">
         <v>23.25000000000001</v>
@@ -5124,7 +5146,7 @@
         <v>8.40000000000002</v>
       </c>
       <c r="K96" t="n">
-        <v>-12.49999999999986</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>23.25000000000001</v>
@@ -5175,7 +5197,7 @@
         <v>8.600000000000019</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L97" t="n">
         <v>23.27000000000001</v>
@@ -5226,7 +5248,7 @@
         <v>8.800000000000018</v>
       </c>
       <c r="K98" t="n">
-        <v>-9.999999999999911</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L98" t="n">
         <v>23.27000000000001</v>
@@ -5277,7 +5299,7 @@
         <v>9.000000000000018</v>
       </c>
       <c r="K99" t="n">
-        <v>-4.76190476190481</v>
+        <v>7.692307692307525</v>
       </c>
       <c r="L99" t="n">
         <v>23.28000000000001</v>
@@ -5328,7 +5350,7 @@
         <v>9.000000000000018</v>
       </c>
       <c r="K100" t="n">
-        <v>-4.76190476190481</v>
+        <v>16.66666666666662</v>
       </c>
       <c r="L100" t="n">
         <v>23.29000000000001</v>
@@ -5379,7 +5401,7 @@
         <v>9.100000000000016</v>
       </c>
       <c r="K101" t="n">
-        <v>-14.28571428571428</v>
+        <v>7.692307692307819</v>
       </c>
       <c r="L101" t="n">
         <v>23.30000000000001</v>
@@ -5430,7 +5452,7 @@
         <v>9.100000000000016</v>
       </c>
       <c r="K102" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
         <v>23.31000000000001</v>
@@ -5481,7 +5503,7 @@
         <v>9.200000000000017</v>
       </c>
       <c r="K103" t="n">
-        <v>-9.999999999999947</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>23.30000000000001</v>
@@ -5532,7 +5554,7 @@
         <v>9.300000000000018</v>
       </c>
       <c r="K104" t="n">
-        <v>-9.999999999999947</v>
+        <v>-9.090909090908914</v>
       </c>
       <c r="L104" t="n">
         <v>23.31000000000001</v>
@@ -5583,7 +5605,7 @@
         <v>9.40000000000002</v>
       </c>
       <c r="K105" t="n">
-        <v>-5.263157894736901</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
         <v>23.29000000000001</v>
@@ -5634,7 +5656,7 @@
         <v>9.40000000000002</v>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L106" t="n">
         <v>23.29000000000001</v>
@@ -5685,7 +5707,7 @@
         <v>9.500000000000018</v>
       </c>
       <c r="K107" t="n">
-        <v>-5.263157894736723</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L107" t="n">
         <v>23.26000000000002</v>
@@ -5736,7 +5758,7 @@
         <v>9.500000000000018</v>
       </c>
       <c r="K108" t="n">
-        <v>-5.263157894736723</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="L108" t="n">
         <v>23.25000000000002</v>
@@ -5787,7 +5809,7 @@
         <v>9.600000000000016</v>
       </c>
       <c r="K109" t="n">
-        <v>-5.263157894736921</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L109" t="n">
         <v>23.23000000000001</v>
@@ -5838,7 +5860,7 @@
         <v>9.600000000000016</v>
       </c>
       <c r="K110" t="n">
-        <v>-5.263157894736921</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L110" t="n">
         <v>23.21000000000002</v>
@@ -5889,7 +5911,7 @@
         <v>9.700000000000017</v>
       </c>
       <c r="K111" t="n">
-        <v>5.263157894736921</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
         <v>23.21000000000002</v>
@@ -5940,7 +5962,7 @@
         <v>9.900000000000016</v>
       </c>
       <c r="K112" t="n">
-        <v>-4.761904761904665</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L112" t="n">
         <v>23.19000000000001</v>
@@ -6042,7 +6064,7 @@
         <v>10.10000000000002</v>
       </c>
       <c r="K114" t="n">
-        <v>4.761904761904842</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L114" t="n">
         <v>23.20000000000001</v>
@@ -6093,7 +6115,7 @@
         <v>10.20000000000002</v>
       </c>
       <c r="K115" t="n">
-        <v>-9.999999999999982</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
         <v>23.20000000000001</v>
@@ -6144,7 +6166,7 @@
         <v>10.20000000000002</v>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L116" t="n">
         <v>23.20000000000001</v>
@@ -6195,7 +6217,7 @@
         <v>10.30000000000001</v>
       </c>
       <c r="K117" t="n">
-        <v>-17.64705882352929</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
         <v>23.20000000000001</v>
@@ -6246,7 +6268,7 @@
         <v>10.30000000000001</v>
       </c>
       <c r="K118" t="n">
-        <v>-6.66666666666654</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L118" t="n">
         <v>23.20000000000001</v>
@@ -6297,7 +6319,7 @@
         <v>10.40000000000001</v>
       </c>
       <c r="K119" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
         <v>23.20000000000001</v>
@@ -6348,7 +6370,7 @@
         <v>10.40000000000001</v>
       </c>
       <c r="K120" t="n">
-        <v>-14.28571428571428</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L120" t="n">
         <v>23.20000000000001</v>
@@ -6399,7 +6421,7 @@
         <v>10.40000000000001</v>
       </c>
       <c r="K121" t="n">
-        <v>-7.692307692307819</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L121" t="n">
         <v>23.19000000000001</v>
@@ -6450,7 +6472,7 @@
         <v>10.60000000000001</v>
       </c>
       <c r="K122" t="n">
-        <v>6.66666666666654</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L122" t="n">
         <v>23.22000000000001</v>
@@ -6501,7 +6523,7 @@
         <v>10.90000000000001</v>
       </c>
       <c r="K123" t="n">
-        <v>-5.882352941176372</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="L123" t="n">
         <v>23.20000000000001</v>
@@ -6552,7 +6574,7 @@
         <v>10.90000000000001</v>
       </c>
       <c r="K124" t="n">
-        <v>-12.50000000000003</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L124" t="n">
         <v>23.18000000000001</v>
@@ -6603,7 +6625,7 @@
         <v>11.00000000000001</v>
       </c>
       <c r="K125" t="n">
-        <v>-12.50000000000003</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="L125" t="n">
         <v>23.16000000000001</v>
@@ -6654,7 +6676,7 @@
         <v>11.00000000000001</v>
       </c>
       <c r="K126" t="n">
-        <v>-12.50000000000003</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L126" t="n">
         <v>23.14000000000001</v>
@@ -6705,7 +6727,7 @@
         <v>11.00000000000001</v>
       </c>
       <c r="K127" t="n">
-        <v>-6.666666666666793</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L127" t="n">
         <v>23.13000000000001</v>
@@ -6756,7 +6778,7 @@
         <v>11.00000000000001</v>
       </c>
       <c r="K128" t="n">
-        <v>-6.666666666666793</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L128" t="n">
         <v>23.12000000000001</v>
@@ -6807,7 +6829,7 @@
         <v>11.00000000000001</v>
       </c>
       <c r="K129" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L129" t="n">
         <v>23.10000000000002</v>
@@ -6858,7 +6880,7 @@
         <v>11.10000000000001</v>
       </c>
       <c r="K130" t="n">
-        <v>-6.66666666666654</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L130" t="n">
         <v>23.09000000000001</v>
@@ -6909,7 +6931,7 @@
         <v>11.20000000000001</v>
       </c>
       <c r="K131" t="n">
-        <v>-20.0000000000001</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L131" t="n">
         <v>23.07000000000001</v>
@@ -6960,7 +6982,7 @@
         <v>11.40000000000001</v>
       </c>
       <c r="K132" t="n">
-        <v>6.66666666666654</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L132" t="n">
         <v>23.05000000000001</v>
@@ -7011,7 +7033,7 @@
         <v>11.50000000000001</v>
       </c>
       <c r="K133" t="n">
-        <v>0</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L133" t="n">
         <v>23.07000000000001</v>
@@ -7062,7 +7084,7 @@
         <v>11.70000000000001</v>
       </c>
       <c r="K134" t="n">
-        <v>-12.49999999999997</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L134" t="n">
         <v>23.07000000000001</v>
@@ -7113,7 +7135,7 @@
         <v>11.70000000000001</v>
       </c>
       <c r="K135" t="n">
-        <v>-6.66666666666654</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L135" t="n">
         <v>23.08000000000002</v>
@@ -7164,7 +7186,7 @@
         <v>11.80000000000001</v>
       </c>
       <c r="K136" t="n">
-        <v>0</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L136" t="n">
         <v>23.10000000000002</v>
@@ -7215,7 +7237,7 @@
         <v>12.00000000000001</v>
       </c>
       <c r="K137" t="n">
-        <v>-5.882352941176569</v>
+        <v>0</v>
       </c>
       <c r="L137" t="n">
         <v>23.10000000000002</v>
@@ -7266,7 +7288,7 @@
         <v>12.10000000000001</v>
       </c>
       <c r="K138" t="n">
-        <v>-11.11111111111129</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L138" t="n">
         <v>23.09000000000001</v>
@@ -7317,7 +7339,7 @@
         <v>12.10000000000001</v>
       </c>
       <c r="K139" t="n">
-        <v>-17.64705882352946</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L139" t="n">
         <v>23.08000000000002</v>
@@ -7368,7 +7390,7 @@
         <v>12.30000000000001</v>
       </c>
       <c r="K140" t="n">
-        <v>-26.31578947368423</v>
+        <v>-27.27272727272739</v>
       </c>
       <c r="L140" t="n">
         <v>23.04000000000001</v>
@@ -7419,7 +7441,7 @@
         <v>12.40000000000001</v>
       </c>
       <c r="K141" t="n">
-        <v>-19.99999999999993</v>
+        <v>-39.99999999999986</v>
       </c>
       <c r="L141" t="n">
         <v>23.02000000000002</v>
@@ -7470,7 +7492,7 @@
         <v>12.50000000000001</v>
       </c>
       <c r="K142" t="n">
-        <v>-36.84210526315781</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L142" t="n">
         <v>22.97000000000002</v>
@@ -7521,7 +7543,7 @@
         <v>12.80000000000001</v>
       </c>
       <c r="K143" t="n">
-        <v>-36.84210526315793</v>
+        <v>-63.63636363636381</v>
       </c>
       <c r="L143" t="n">
         <v>22.88000000000002</v>
@@ -7572,7 +7594,7 @@
         <v>13.30000000000001</v>
       </c>
       <c r="K144" t="n">
-        <v>-8.333333333333432</v>
+        <v>-12.50000000000017</v>
       </c>
       <c r="L144" t="n">
         <v>22.86000000000002</v>
@@ -7623,7 +7645,7 @@
         <v>13.30000000000001</v>
       </c>
       <c r="K145" t="n">
-        <v>-4.347826086956576</v>
+        <v>-20</v>
       </c>
       <c r="L145" t="n">
         <v>22.84000000000002</v>
@@ -7674,7 +7696,7 @@
         <v>13.30000000000001</v>
       </c>
       <c r="K146" t="n">
-        <v>-4.347826086956576</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L146" t="n">
         <v>22.81000000000002</v>
@@ -7725,7 +7747,7 @@
         <v>13.50000000000001</v>
       </c>
       <c r="K147" t="n">
-        <v>-12.00000000000001</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L147" t="n">
         <v>22.78000000000002</v>
@@ -7776,7 +7798,7 @@
         <v>13.60000000000001</v>
       </c>
       <c r="K148" t="n">
-        <v>-15.38461538461532</v>
+        <v>-19.99999999999981</v>
       </c>
       <c r="L148" t="n">
         <v>22.75000000000002</v>
@@ -7827,7 +7849,7 @@
         <v>13.70000000000001</v>
       </c>
       <c r="K149" t="n">
-        <v>-18.5185185185185</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L149" t="n">
         <v>22.71000000000002</v>
@@ -7878,7 +7900,7 @@
         <v>13.80000000000001</v>
       </c>
       <c r="K150" t="n">
-        <v>-18.5185185185185</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L150" t="n">
         <v>22.70000000000002</v>
@@ -7929,7 +7951,7 @@
         <v>13.90000000000002</v>
       </c>
       <c r="K151" t="n">
-        <v>-18.5185185185185</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L151" t="n">
         <v>22.67000000000002</v>
@@ -7980,7 +8002,7 @@
         <v>14.00000000000002</v>
       </c>
       <c r="K152" t="n">
-        <v>-30.76923076923074</v>
+        <v>0</v>
       </c>
       <c r="L152" t="n">
         <v>22.64000000000002</v>
@@ -8031,7 +8053,7 @@
         <v>14.10000000000002</v>
       </c>
       <c r="K153" t="n">
-        <v>-30.76923076923074</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L153" t="n">
         <v>22.65000000000002</v>
@@ -8082,7 +8104,7 @@
         <v>14.20000000000002</v>
       </c>
       <c r="K154" t="n">
-        <v>-28.00000000000004</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L154" t="n">
         <v>22.60000000000002</v>
@@ -8133,7 +8155,7 @@
         <v>14.30000000000002</v>
       </c>
       <c r="K155" t="n">
-        <v>-23.07692307692306</v>
+        <v>-39.99999999999957</v>
       </c>
       <c r="L155" t="n">
         <v>22.56000000000002</v>
@@ -8184,7 +8206,7 @@
         <v>14.40000000000002</v>
       </c>
       <c r="K156" t="n">
-        <v>-23.07692307692289</v>
+        <v>-11.11111111111076</v>
       </c>
       <c r="L156" t="n">
         <v>22.53000000000002</v>
@@ -8235,7 +8257,7 @@
         <v>14.40000000000002</v>
       </c>
       <c r="K157" t="n">
-        <v>-16.66666666666652</v>
+        <v>0</v>
       </c>
       <c r="L157" t="n">
         <v>22.52000000000002</v>
@@ -8286,7 +8308,7 @@
         <v>14.60000000000003</v>
       </c>
       <c r="K158" t="n">
-        <v>-19.99999999999989</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L158" t="n">
         <v>22.50000000000002</v>
@@ -8337,7 +8359,7 @@
         <v>14.60000000000003</v>
       </c>
       <c r="K159" t="n">
-        <v>-19.99999999999989</v>
+        <v>-25</v>
       </c>
       <c r="L159" t="n">
         <v>22.49000000000002</v>
@@ -8388,7 +8410,7 @@
         <v>14.70000000000003</v>
       </c>
       <c r="K160" t="n">
-        <v>-8.333333333333247</v>
+        <v>0</v>
       </c>
       <c r="L160" t="n">
         <v>22.48000000000002</v>
@@ -8439,7 +8461,7 @@
         <v>14.70000000000003</v>
       </c>
       <c r="K161" t="n">
-        <v>-13.04347826086951</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L161" t="n">
         <v>22.48000000000002</v>
@@ -8490,7 +8512,7 @@
         <v>14.80000000000003</v>
       </c>
       <c r="K162" t="n">
-        <v>-4.347826086956401</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L162" t="n">
         <v>22.50000000000002</v>
@@ -8541,7 +8563,7 @@
         <v>14.90000000000003</v>
       </c>
       <c r="K163" t="n">
-        <v>14.28571428571424</v>
+        <v>42.85714285714256</v>
       </c>
       <c r="L163" t="n">
         <v>22.52000000000002</v>
@@ -8592,7 +8614,7 @@
         <v>14.90000000000003</v>
       </c>
       <c r="K164" t="n">
-        <v>-12.49999999999986</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L164" t="n">
         <v>22.55000000000001</v>
@@ -8643,7 +8665,7 @@
         <v>15.10000000000003</v>
       </c>
       <c r="K165" t="n">
-        <v>-22.222222222222</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L165" t="n">
         <v>22.55000000000001</v>
@@ -8694,7 +8716,7 @@
         <v>15.30000000000003</v>
       </c>
       <c r="K166" t="n">
-        <v>-9.999999999999911</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="L166" t="n">
         <v>22.56000000000001</v>
@@ -8745,7 +8767,7 @@
         <v>15.40000000000002</v>
       </c>
       <c r="K167" t="n">
-        <v>-5.263157894736705</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L167" t="n">
         <v>22.56000000000001</v>
@@ -8796,7 +8818,7 @@
         <v>15.40000000000002</v>
       </c>
       <c r="K168" t="n">
-        <v>0</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L168" t="n">
         <v>22.58000000000001</v>
@@ -8898,7 +8920,7 @@
         <v>15.60000000000003</v>
       </c>
       <c r="K170" t="n">
-        <v>0</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L170" t="n">
         <v>22.60000000000001</v>
@@ -8949,7 +8971,7 @@
         <v>15.70000000000003</v>
       </c>
       <c r="K171" t="n">
-        <v>0</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L171" t="n">
         <v>22.60000000000001</v>
@@ -9000,7 +9022,7 @@
         <v>15.80000000000003</v>
       </c>
       <c r="K172" t="n">
-        <v>11.1111111111112</v>
+        <v>-11.11111111111085</v>
       </c>
       <c r="L172" t="n">
         <v>22.60000000000001</v>
@@ -9051,7 +9073,7 @@
         <v>15.90000000000003</v>
       </c>
       <c r="K173" t="n">
-        <v>11.11111111111102</v>
+        <v>0</v>
       </c>
       <c r="L173" t="n">
         <v>22.60000000000001</v>
@@ -9102,7 +9124,7 @@
         <v>16.10000000000003</v>
       </c>
       <c r="K174" t="n">
-        <v>5.263157894736901</v>
+        <v>0</v>
       </c>
       <c r="L174" t="n">
         <v>22.58000000000001</v>
@@ -9153,7 +9175,7 @@
         <v>16.20000000000003</v>
       </c>
       <c r="K175" t="n">
-        <v>5.263157894736901</v>
+        <v>-11.11111111111085</v>
       </c>
       <c r="L175" t="n">
         <v>22.59000000000001</v>
@@ -9306,7 +9328,7 @@
         <v>16.30000000000003</v>
       </c>
       <c r="K178" t="n">
-        <v>17.64705882352946</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L178" t="n">
         <v>22.59000000000001</v>
@@ -9357,7 +9379,7 @@
         <v>16.30000000000003</v>
       </c>
       <c r="K179" t="n">
-        <v>17.64705882352946</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L179" t="n">
         <v>22.61000000000001</v>
@@ -9408,7 +9430,7 @@
         <v>16.40000000000003</v>
       </c>
       <c r="K180" t="n">
-        <v>17.64705882352946</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L180" t="n">
         <v>22.63000000000001</v>
@@ -9459,7 +9481,7 @@
         <v>16.40000000000003</v>
       </c>
       <c r="K181" t="n">
-        <v>17.64705882352946</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L181" t="n">
         <v>22.66000000000001</v>
@@ -9510,7 +9532,7 @@
         <v>16.40000000000003</v>
       </c>
       <c r="K182" t="n">
-        <v>12.49999999999997</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L182" t="n">
         <v>22.68000000000001</v>
@@ -9561,7 +9583,7 @@
         <v>16.40000000000003</v>
       </c>
       <c r="K183" t="n">
-        <v>6.666666666666761</v>
+        <v>100</v>
       </c>
       <c r="L183" t="n">
         <v>22.69000000000002</v>
@@ -9612,7 +9634,7 @@
         <v>16.40000000000003</v>
       </c>
       <c r="K184" t="n">
-        <v>6.666666666666761</v>
+        <v>100</v>
       </c>
       <c r="L184" t="n">
         <v>22.72000000000002</v>
@@ -9663,7 +9685,7 @@
         <v>16.50000000000003</v>
       </c>
       <c r="K185" t="n">
-        <v>14.28571428571421</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L185" t="n">
         <v>22.73000000000002</v>
@@ -9714,7 +9736,7 @@
         <v>16.60000000000003</v>
       </c>
       <c r="K186" t="n">
-        <v>7.692307692307776</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L186" t="n">
         <v>22.75000000000002</v>
@@ -9765,7 +9787,7 @@
         <v>16.70000000000003</v>
       </c>
       <c r="K187" t="n">
-        <v>7.692307692307482</v>
+        <v>0</v>
       </c>
       <c r="L187" t="n">
         <v>22.76000000000002</v>
@@ -9816,7 +9838,7 @@
         <v>16.70000000000003</v>
       </c>
       <c r="K188" t="n">
-        <v>7.692307692307482</v>
+        <v>0</v>
       </c>
       <c r="L188" t="n">
         <v>22.76000000000002</v>
@@ -9867,7 +9889,7 @@
         <v>16.80000000000003</v>
       </c>
       <c r="K189" t="n">
-        <v>7.692307692307776</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L189" t="n">
         <v>22.75000000000002</v>
@@ -9918,7 +9940,7 @@
         <v>16.80000000000003</v>
       </c>
       <c r="K190" t="n">
-        <v>0</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L190" t="n">
         <v>22.73000000000002</v>
@@ -9969,7 +9991,7 @@
         <v>17.00000000000003</v>
       </c>
       <c r="K191" t="n">
-        <v>23.07692307692312</v>
+        <v>0</v>
       </c>
       <c r="L191" t="n">
         <v>22.73000000000002</v>
@@ -10020,7 +10042,7 @@
         <v>17.20000000000003</v>
       </c>
       <c r="K192" t="n">
-        <v>0</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L192" t="n">
         <v>22.71000000000002</v>
@@ -10071,7 +10093,7 @@
         <v>17.20000000000003</v>
       </c>
       <c r="K193" t="n">
-        <v>-7.692307692307525</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L193" t="n">
         <v>22.69000000000002</v>
@@ -10122,7 +10144,7 @@
         <v>17.20000000000003</v>
       </c>
       <c r="K194" t="n">
-        <v>9.090909090909207</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L194" t="n">
         <v>22.67000000000001</v>
@@ -10173,7 +10195,7 @@
         <v>17.30000000000003</v>
       </c>
       <c r="K195" t="n">
-        <v>9.090909090908914</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L195" t="n">
         <v>22.67000000000001</v>
@@ -10224,7 +10246,7 @@
         <v>17.30000000000003</v>
       </c>
       <c r="K196" t="n">
-        <v>9.090909090908914</v>
+        <v>0</v>
       </c>
       <c r="L196" t="n">
         <v>22.66000000000001</v>
@@ -10275,7 +10297,7 @@
         <v>17.30000000000003</v>
       </c>
       <c r="K197" t="n">
-        <v>9.090909090908914</v>
+        <v>0</v>
       </c>
       <c r="L197" t="n">
         <v>22.66000000000001</v>
@@ -10326,7 +10348,7 @@
         <v>17.30000000000003</v>
       </c>
       <c r="K198" t="n">
-        <v>0</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L198" t="n">
         <v>22.66000000000001</v>
@@ -10377,7 +10399,7 @@
         <v>17.30000000000003</v>
       </c>
       <c r="K199" t="n">
-        <v>0</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L199" t="n">
         <v>22.67000000000001</v>
@@ -10428,7 +10450,7 @@
         <v>17.30000000000003</v>
       </c>
       <c r="K200" t="n">
-        <v>-11.11111111111129</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L200" t="n">
         <v>22.68000000000001</v>
@@ -10479,7 +10501,7 @@
         <v>17.30000000000003</v>
       </c>
       <c r="K201" t="n">
-        <v>-11.11111111111129</v>
+        <v>100</v>
       </c>
       <c r="L201" t="n">
         <v>22.67000000000001</v>
@@ -10530,7 +10552,7 @@
         <v>17.30000000000003</v>
       </c>
       <c r="K202" t="n">
-        <v>-11.11111111111129</v>
+        <v>100</v>
       </c>
       <c r="L202" t="n">
         <v>22.68000000000001</v>
@@ -10581,7 +10603,7 @@
         <v>17.30000000000003</v>
       </c>
       <c r="K203" t="n">
-        <v>-11.11111111111129</v>
+        <v>100</v>
       </c>
       <c r="L203" t="n">
         <v>22.69</v>
@@ -10632,7 +10654,7 @@
         <v>17.40000000000003</v>
       </c>
       <c r="K204" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L204" t="n">
         <v>22.71000000000001</v>
@@ -10734,7 +10756,7 @@
         <v>17.60000000000003</v>
       </c>
       <c r="K206" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L206" t="n">
         <v>22.72000000000001</v>
@@ -10785,7 +10807,7 @@
         <v>17.60000000000003</v>
       </c>
       <c r="K207" t="n">
-        <v>11.11111111111129</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L207" t="n">
         <v>22.73000000000001</v>
@@ -10887,7 +10909,7 @@
         <v>17.80000000000003</v>
       </c>
       <c r="K209" t="n">
-        <v>19.99999999999986</v>
+        <v>20</v>
       </c>
       <c r="L209" t="n">
         <v>22.74000000000002</v>
@@ -10938,7 +10960,7 @@
         <v>17.90000000000003</v>
       </c>
       <c r="K210" t="n">
-        <v>27.27272727272697</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L210" t="n">
         <v>22.76000000000002</v>
@@ -10989,7 +11011,7 @@
         <v>18.10000000000003</v>
       </c>
       <c r="K211" t="n">
-        <v>-9.090909090909207</v>
+        <v>0</v>
       </c>
       <c r="L211" t="n">
         <v>22.76000000000002</v>
@@ -11040,7 +11062,7 @@
         <v>18.30000000000003</v>
       </c>
       <c r="K212" t="n">
-        <v>27.27272727272697</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L212" t="n">
         <v>22.78000000000002</v>
@@ -11091,7 +11113,7 @@
         <v>18.30000000000003</v>
       </c>
       <c r="K213" t="n">
-        <v>27.27272727272697</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="L213" t="n">
         <v>22.80000000000002</v>
@@ -11142,7 +11164,7 @@
         <v>18.60000000000003</v>
       </c>
       <c r="K214" t="n">
-        <v>42.85714285714264</v>
+        <v>45.4545454545454</v>
       </c>
       <c r="L214" t="n">
         <v>22.84000000000002</v>
@@ -11193,7 +11215,7 @@
         <v>18.80000000000003</v>
       </c>
       <c r="K215" t="n">
-        <v>46.66666666666651</v>
+        <v>49.99999999999985</v>
       </c>
       <c r="L215" t="n">
         <v>22.91000000000002</v>
@@ -11244,7 +11266,7 @@
         <v>18.90000000000003</v>
       </c>
       <c r="K216" t="n">
-        <v>37.50000000000006</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L216" t="n">
         <v>22.96000000000002</v>
@@ -11295,7 +11317,7 @@
         <v>19.00000000000002</v>
       </c>
       <c r="K217" t="n">
-        <v>41.17647058823527</v>
+        <v>53.84615384615405</v>
       </c>
       <c r="L217" t="n">
         <v>23.02000000000002</v>
@@ -11346,7 +11368,7 @@
         <v>19.10000000000002</v>
       </c>
       <c r="K218" t="n">
-        <v>33.33333333333346</v>
+        <v>38.46153846153876</v>
       </c>
       <c r="L218" t="n">
         <v>23.08000000000002</v>
@@ -11397,7 +11419,7 @@
         <v>19.10000000000002</v>
       </c>
       <c r="K219" t="n">
-        <v>33.33333333333346</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L219" t="n">
         <v>23.13000000000002</v>
@@ -11448,7 +11470,7 @@
         <v>19.10000000000002</v>
       </c>
       <c r="K220" t="n">
-        <v>33.33333333333346</v>
+        <v>60.00000000000056</v>
       </c>
       <c r="L220" t="n">
         <v>23.17000000000002</v>
@@ -11499,7 +11521,7 @@
         <v>19.30000000000002</v>
       </c>
       <c r="K221" t="n">
-        <v>20.00000000000014</v>
+        <v>20.00000000000043</v>
       </c>
       <c r="L221" t="n">
         <v>23.21000000000002</v>
@@ -11550,7 +11572,7 @@
         <v>19.30000000000002</v>
       </c>
       <c r="K222" t="n">
-        <v>20.00000000000014</v>
+        <v>20.00000000000043</v>
       </c>
       <c r="L222" t="n">
         <v>23.23000000000002</v>
@@ -11601,7 +11623,7 @@
         <v>19.40000000000002</v>
       </c>
       <c r="K223" t="n">
-        <v>23.80952380952387</v>
+        <v>0</v>
       </c>
       <c r="L223" t="n">
         <v>23.26000000000002</v>
@@ -11652,7 +11674,7 @@
         <v>19.50000000000002</v>
       </c>
       <c r="K224" t="n">
-        <v>14.28571428571438</v>
+        <v>-42.85714285714315</v>
       </c>
       <c r="L224" t="n">
         <v>23.25000000000002</v>
@@ -11703,7 +11725,7 @@
         <v>19.60000000000002</v>
       </c>
       <c r="K225" t="n">
-        <v>14.28571428571438</v>
+        <v>-42.85714285714344</v>
       </c>
       <c r="L225" t="n">
         <v>23.21000000000002</v>
@@ -11754,7 +11776,7 @@
         <v>19.60000000000002</v>
       </c>
       <c r="K226" t="n">
-        <v>10.00000000000002</v>
+        <v>-66.66666666666707</v>
       </c>
       <c r="L226" t="n">
         <v>23.18000000000002</v>
@@ -11805,7 +11827,7 @@
         <v>19.60000000000002</v>
       </c>
       <c r="K227" t="n">
-        <v>10.00000000000002</v>
+        <v>-60.00000000000056</v>
       </c>
       <c r="L227" t="n">
         <v>23.14000000000002</v>
@@ -11856,7 +11878,7 @@
         <v>19.80000000000002</v>
       </c>
       <c r="K228" t="n">
-        <v>23.80952380952396</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L228" t="n">
         <v>23.13000000000002</v>
@@ -11907,7 +11929,7 @@
         <v>19.90000000000002</v>
       </c>
       <c r="K229" t="n">
-        <v>14.28571428571443</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="L229" t="n">
         <v>23.11000000000001</v>
@@ -11958,7 +11980,7 @@
         <v>20.00000000000002</v>
       </c>
       <c r="K230" t="n">
-        <v>4.761904761904859</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L230" t="n">
         <v>23.08000000000001</v>
@@ -12009,7 +12031,7 @@
         <v>20.00000000000002</v>
       </c>
       <c r="K231" t="n">
-        <v>15.78947368421066</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L231" t="n">
         <v>23.07000000000001</v>
@@ -12060,7 +12082,7 @@
         <v>20.10000000000002</v>
       </c>
       <c r="K232" t="n">
-        <v>0</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L232" t="n">
         <v>23.05000000000001</v>
@@ -12111,7 +12133,7 @@
         <v>20.30000000000002</v>
       </c>
       <c r="K233" t="n">
-        <v>-10.00000000000002</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="L233" t="n">
         <v>23.00000000000001</v>
@@ -12162,7 +12184,7 @@
         <v>20.30000000000002</v>
       </c>
       <c r="K234" t="n">
-        <v>-29.41176470588255</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L234" t="n">
         <v>22.96000000000002</v>
@@ -12213,7 +12235,7 @@
         <v>20.40000000000002</v>
       </c>
       <c r="K235" t="n">
-        <v>-37.50000000000009</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L235" t="n">
         <v>22.94000000000002</v>
@@ -12264,7 +12286,7 @@
         <v>20.40000000000002</v>
       </c>
       <c r="K236" t="n">
-        <v>-33.33333333333349</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L236" t="n">
         <v>22.92000000000002</v>
@@ -12315,7 +12337,7 @@
         <v>20.50000000000002</v>
       </c>
       <c r="K237" t="n">
-        <v>-33.33333333333349</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L237" t="n">
         <v>22.91000000000002</v>
@@ -12366,7 +12388,7 @@
         <v>20.50000000000002</v>
       </c>
       <c r="K238" t="n">
-        <v>-28.57142857142883</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L238" t="n">
         <v>22.88000000000002</v>
@@ -12417,7 +12439,7 @@
         <v>20.70000000000002</v>
       </c>
       <c r="K239" t="n">
-        <v>-37.50000000000022</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L239" t="n">
         <v>22.84000000000002</v>
@@ -12468,7 +12490,7 @@
         <v>20.80000000000002</v>
       </c>
       <c r="K240" t="n">
-        <v>-29.41176470588243</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L240" t="n">
         <v>22.82000000000002</v>
@@ -12519,7 +12541,7 @@
         <v>20.90000000000002</v>
       </c>
       <c r="K241" t="n">
-        <v>-12.50000000000022</v>
+        <v>0</v>
       </c>
       <c r="L241" t="n">
         <v>22.81000000000002</v>
@@ -12570,7 +12592,7 @@
         <v>21.00000000000002</v>
       </c>
       <c r="K242" t="n">
-        <v>-5.882352941176569</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L242" t="n">
         <v>22.82000000000002</v>
@@ -12621,7 +12643,7 @@
         <v>21.00000000000002</v>
       </c>
       <c r="K243" t="n">
-        <v>-12.49999999999997</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L243" t="n">
         <v>22.85000000000002</v>
@@ -12672,7 +12694,7 @@
         <v>21.00000000000002</v>
       </c>
       <c r="K244" t="n">
-        <v>-6.666666666666761</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L244" t="n">
         <v>22.88000000000002</v>
@@ -12723,7 +12745,7 @@
         <v>21.00000000000002</v>
       </c>
       <c r="K245" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L245" t="n">
         <v>22.90000000000002</v>
@@ -12774,7 +12796,7 @@
         <v>21.00000000000002</v>
       </c>
       <c r="K246" t="n">
-        <v>0</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L246" t="n">
         <v>22.92000000000002</v>
@@ -12825,7 +12847,7 @@
         <v>21.00000000000002</v>
       </c>
       <c r="K247" t="n">
-        <v>0</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L247" t="n">
         <v>22.93000000000002</v>
@@ -12876,7 +12898,7 @@
         <v>21.00000000000002</v>
       </c>
       <c r="K248" t="n">
-        <v>-16.66666666666662</v>
+        <v>100</v>
       </c>
       <c r="L248" t="n">
         <v>22.94000000000002</v>
@@ -12927,7 +12949,7 @@
         <v>21.00000000000002</v>
       </c>
       <c r="K249" t="n">
-        <v>-9.090909090909207</v>
+        <v>100</v>
       </c>
       <c r="L249" t="n">
         <v>22.97000000000002</v>
@@ -12978,7 +13000,7 @@
         <v>21.00000000000002</v>
       </c>
       <c r="K250" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L250" t="n">
         <v>22.99000000000002</v>
@@ -13029,7 +13051,7 @@
         <v>21.10000000000002</v>
       </c>
       <c r="K251" t="n">
-        <v>9.090909090909207</v>
+        <v>100</v>
       </c>
       <c r="L251" t="n">
         <v>23.01000000000002</v>
@@ -13080,7 +13102,7 @@
         <v>21.10000000000002</v>
       </c>
       <c r="K252" t="n">
-        <v>20.00000000000028</v>
+        <v>100</v>
       </c>
       <c r="L252" t="n">
         <v>23.02000000000002</v>
@@ -13131,7 +13153,7 @@
         <v>21.20000000000002</v>
       </c>
       <c r="K253" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L253" t="n">
         <v>23.02000000000002</v>
@@ -13182,7 +13204,7 @@
         <v>21.20000000000002</v>
       </c>
       <c r="K254" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L254" t="n">
         <v>23.02000000000002</v>
@@ -13233,7 +13255,7 @@
         <v>21.20000000000002</v>
       </c>
       <c r="K255" t="n">
-        <v>24.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="L255" t="n">
         <v>23.02000000000002</v>
@@ -13284,7 +13306,7 @@
         <v>21.20000000000002</v>
       </c>
       <c r="K256" t="n">
-        <v>24.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="L256" t="n">
         <v>23.02000000000002</v>
@@ -13335,7 +13357,7 @@
         <v>21.30000000000002</v>
       </c>
       <c r="K257" t="n">
-        <v>25.00000000000022</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L257" t="n">
         <v>23.03000000000002</v>
@@ -13386,7 +13408,7 @@
         <v>21.30000000000002</v>
       </c>
       <c r="K258" t="n">
-        <v>25.00000000000022</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L258" t="n">
         <v>23.04000000000001</v>
@@ -13437,7 +13459,7 @@
         <v>21.40000000000002</v>
       </c>
       <c r="K259" t="n">
-        <v>71.42857142857115</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L259" t="n">
         <v>23.06000000000001</v>
@@ -13488,7 +13510,7 @@
         <v>21.40000000000002</v>
       </c>
       <c r="K260" t="n">
-        <v>66.66666666666627</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L260" t="n">
         <v>23.08000000000001</v>
@@ -13539,7 +13561,7 @@
         <v>21.40000000000002</v>
       </c>
       <c r="K261" t="n">
-        <v>59.99999999999972</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L261" t="n">
         <v>23.09000000000001</v>
@@ -13590,7 +13612,7 @@
         <v>21.40000000000002</v>
       </c>
       <c r="K262" t="n">
-        <v>49.99999999999956</v>
+        <v>100</v>
       </c>
       <c r="L262" t="n">
         <v>23.10000000000001</v>
@@ -13641,7 +13663,7 @@
         <v>21.50000000000002</v>
       </c>
       <c r="K263" t="n">
-        <v>20.00000000000028</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L263" t="n">
         <v>23.11000000000001</v>
@@ -13692,7 +13714,7 @@
         <v>21.60000000000002</v>
       </c>
       <c r="K264" t="n">
-        <v>33.33333333333333</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L264" t="n">
         <v>23.13000000000001</v>
@@ -13743,7 +13765,7 @@
         <v>21.80000000000001</v>
       </c>
       <c r="K265" t="n">
-        <v>50</v>
+        <v>66.66666666666707</v>
       </c>
       <c r="L265" t="n">
         <v>23.17000000000001</v>
@@ -13794,7 +13816,7 @@
         <v>22.00000000000001</v>
       </c>
       <c r="K266" t="n">
-        <v>20</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L266" t="n">
         <v>23.19000000000001</v>
@@ -13845,7 +13867,7 @@
         <v>22.00000000000001</v>
       </c>
       <c r="K267" t="n">
-        <v>20</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L267" t="n">
         <v>23.20000000000001</v>
@@ -13896,7 +13918,7 @@
         <v>22.00000000000001</v>
       </c>
       <c r="K268" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L268" t="n">
         <v>23.21000000000001</v>
@@ -13947,7 +13969,7 @@
         <v>22.00000000000001</v>
       </c>
       <c r="K269" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L269" t="n">
         <v>23.21000000000001</v>
@@ -13998,7 +14020,7 @@
         <v>22.00000000000001</v>
       </c>
       <c r="K270" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L270" t="n">
         <v>23.21000000000001</v>
@@ -14049,7 +14071,7 @@
         <v>22.00000000000001</v>
       </c>
       <c r="K271" t="n">
-        <v>11.11111111111093</v>
+        <v>0</v>
       </c>
       <c r="L271" t="n">
         <v>23.21000000000001</v>
@@ -14151,7 +14173,7 @@
         <v>22.20000000000001</v>
       </c>
       <c r="K273" t="n">
-        <v>20.00000000000014</v>
+        <v>0</v>
       </c>
       <c r="L273" t="n">
         <v>23.21000000000001</v>
@@ -14202,7 +14224,7 @@
         <v>22.20000000000001</v>
       </c>
       <c r="K274" t="n">
-        <v>20.00000000000014</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L274" t="n">
         <v>23.21000000000001</v>
@@ -14253,7 +14275,7 @@
         <v>22.20000000000001</v>
       </c>
       <c r="K275" t="n">
-        <v>20.00000000000014</v>
+        <v>0</v>
       </c>
       <c r="L275" t="n">
         <v>23.19</v>
@@ -14304,7 +14326,7 @@
         <v>22.30000000000001</v>
       </c>
       <c r="K276" t="n">
-        <v>9.090909090909326</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L276" t="n">
         <v>23.18000000000001</v>
@@ -14355,7 +14377,7 @@
         <v>22.50000000000001</v>
       </c>
       <c r="K277" t="n">
-        <v>16.66666666666682</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L277" t="n">
         <v>23.19000000000001</v>
@@ -14406,7 +14428,7 @@
         <v>22.60000000000001</v>
       </c>
       <c r="K278" t="n">
-        <v>7.692307692307608</v>
+        <v>0</v>
       </c>
       <c r="L278" t="n">
         <v>23.19000000000001</v>
@@ -14508,7 +14530,7 @@
         <v>22.70000000000001</v>
       </c>
       <c r="K280" t="n">
-        <v>-7.692307692307608</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L280" t="n">
         <v>23.18000000000001</v>
@@ -14559,7 +14581,7 @@
         <v>22.8</v>
       </c>
       <c r="K281" t="n">
-        <v>0</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L281" t="n">
         <v>23.18000000000001</v>
@@ -14661,7 +14683,7 @@
         <v>22.8</v>
       </c>
       <c r="K283" t="n">
-        <v>7.692307692307608</v>
+        <v>0</v>
       </c>
       <c r="L283" t="n">
         <v>23.19000000000001</v>
@@ -14763,7 +14785,7 @@
         <v>22.8</v>
       </c>
       <c r="K285" t="n">
-        <v>-20.00000000000014</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L285" t="n">
         <v>23.19000000000001</v>
@@ -14814,7 +14836,7 @@
         <v>22.8</v>
       </c>
       <c r="K286" t="n">
-        <v>0</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L286" t="n">
         <v>23.20000000000001</v>
@@ -14977,7 +14999,7 @@
         <v>22.8</v>
       </c>
       <c r="K289" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L289" t="n">
         <v>23.19</v>
@@ -15033,9 +15055,7 @@
       <c r="J290" t="n">
         <v>22.8</v>
       </c>
-      <c r="K290" t="n">
-        <v>0</v>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>23.20000000000001</v>
       </c>
@@ -15090,9 +15110,7 @@
       <c r="J291" t="n">
         <v>22.8</v>
       </c>
-      <c r="K291" t="n">
-        <v>0</v>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>23.20000000000001</v>
       </c>
@@ -15148,7 +15166,7 @@
         <v>22.90000000000001</v>
       </c>
       <c r="K292" t="n">
-        <v>25.00000000000011</v>
+        <v>100</v>
       </c>
       <c r="L292" t="n">
         <v>23.21000000000001</v>
@@ -15205,7 +15223,7 @@
         <v>23</v>
       </c>
       <c r="K293" t="n">
-        <v>25.00000000000011</v>
+        <v>100</v>
       </c>
       <c r="L293" t="n">
         <v>23.23000000000001</v>
@@ -15262,7 +15280,7 @@
         <v>23.1</v>
       </c>
       <c r="K294" t="n">
-        <v>11.11111111111137</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L294" t="n">
         <v>23.24000000000001</v>
@@ -15321,7 +15339,7 @@
         <v>23.1</v>
       </c>
       <c r="K295" t="n">
-        <v>11.11111111111137</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L295" t="n">
         <v>23.25000000000001</v>
@@ -15378,7 +15396,7 @@
         <v>23.1</v>
       </c>
       <c r="K296" t="n">
-        <v>25.00000000000011</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L296" t="n">
         <v>23.26000000000002</v>
@@ -15435,7 +15453,7 @@
         <v>23.1</v>
       </c>
       <c r="K297" t="n">
-        <v>0</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L297" t="n">
         <v>23.27000000000002</v>
@@ -15588,7 +15606,7 @@
         <v>23.2</v>
       </c>
       <c r="K300" t="n">
-        <v>19.99999999999972</v>
+        <v>0</v>
       </c>
       <c r="L300" t="n">
         <v>23.27000000000002</v>
@@ -15639,7 +15657,7 @@
         <v>23.3</v>
       </c>
       <c r="K301" t="n">
-        <v>20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L301" t="n">
         <v>23.28000000000002</v>
@@ -15690,7 +15708,7 @@
         <v>23.4</v>
       </c>
       <c r="K302" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L302" t="n">
         <v>23.29000000000001</v>
@@ -15741,7 +15759,7 @@
         <v>23.6</v>
       </c>
       <c r="K303" t="n">
-        <v>50.00000000000022</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L303" t="n">
         <v>23.31000000000002</v>
@@ -15792,7 +15810,7 @@
         <v>23.7</v>
       </c>
       <c r="K304" t="n">
-        <v>55.55555555555565</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L304" t="n">
         <v>23.35000000000002</v>
@@ -15843,7 +15861,7 @@
         <v>23.8</v>
       </c>
       <c r="K305" t="n">
-        <v>40.00000000000036</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L305" t="n">
         <v>23.38000000000002</v>
@@ -15894,7 +15912,7 @@
         <v>23.9</v>
       </c>
       <c r="K306" t="n">
-        <v>45.45454545454569</v>
+        <v>50</v>
       </c>
       <c r="L306" t="n">
         <v>23.42000000000002</v>
@@ -15945,7 +15963,7 @@
         <v>24</v>
       </c>
       <c r="K307" t="n">
-        <v>50.0000000000003</v>
+        <v>75.00000000000044</v>
       </c>
       <c r="L307" t="n">
         <v>23.47000000000002</v>
@@ -15996,7 +16014,7 @@
         <v>24.1</v>
       </c>
       <c r="K308" t="n">
-        <v>38.46153846153855</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L308" t="n">
         <v>23.52000000000002</v>
@@ -16047,7 +16065,7 @@
         <v>24.3</v>
       </c>
       <c r="K309" t="n">
-        <v>46.66666666666673</v>
+        <v>63.63636363636369</v>
       </c>
       <c r="L309" t="n">
         <v>23.59000000000001</v>
@@ -16098,7 +16116,7 @@
         <v>24.4</v>
       </c>
       <c r="K310" t="n">
-        <v>50.00000000000011</v>
+        <v>63.63636363636369</v>
       </c>
       <c r="L310" t="n">
         <v>23.67000000000002</v>
@@ -16149,7 +16167,7 @@
         <v>24.6</v>
       </c>
       <c r="K311" t="n">
-        <v>33.33333333333346</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L311" t="n">
         <v>23.72000000000002</v>
@@ -16200,7 +16218,7 @@
         <v>24.7</v>
       </c>
       <c r="K312" t="n">
-        <v>33.33333333333333</v>
+        <v>27.27272727272715</v>
       </c>
       <c r="L312" t="n">
         <v>23.77000000000001</v>
@@ -16251,7 +16269,7 @@
         <v>24.8</v>
       </c>
       <c r="K313" t="n">
-        <v>33.33333333333346</v>
+        <v>27.27272727272739</v>
       </c>
       <c r="L313" t="n">
         <v>23.81000000000002</v>
@@ -16302,7 +16320,7 @@
         <v>24.9</v>
       </c>
       <c r="K314" t="n">
-        <v>44.44444444444446</v>
+        <v>45.4545454545454</v>
       </c>
       <c r="L314" t="n">
         <v>23.85000000000002</v>
@@ -16353,7 +16371,7 @@
         <v>25</v>
       </c>
       <c r="K315" t="n">
-        <v>36.84210526315781</v>
+        <v>27.27272727272722</v>
       </c>
       <c r="L315" t="n">
         <v>23.89000000000002</v>
@@ -16404,7 +16422,7 @@
         <v>25.1</v>
       </c>
       <c r="K316" t="n">
-        <v>39.99999999999996</v>
+        <v>27.27272727272722</v>
       </c>
       <c r="L316" t="n">
         <v>23.93000000000002</v>
@@ -16455,7 +16473,7 @@
         <v>25.2</v>
       </c>
       <c r="K317" t="n">
-        <v>42.85714285714276</v>
+        <v>45.4545454545454</v>
       </c>
       <c r="L317" t="n">
         <v>23.97000000000002</v>
@@ -16506,7 +16524,7 @@
         <v>25.3</v>
       </c>
       <c r="K318" t="n">
-        <v>42.857142857143</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L318" t="n">
         <v>24.01000000000002</v>
@@ -16557,7 +16575,7 @@
         <v>25.5</v>
       </c>
       <c r="K319" t="n">
-        <v>30.43478260869561</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L319" t="n">
         <v>24.01000000000002</v>
@@ -16608,7 +16626,7 @@
         <v>25.5</v>
       </c>
       <c r="K320" t="n">
-        <v>30.43478260869561</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="L320" t="n">
         <v>24.00000000000002</v>
@@ -16659,7 +16677,7 @@
         <v>25.5</v>
       </c>
       <c r="K321" t="n">
-        <v>27.27272727272718</v>
+        <v>0</v>
       </c>
       <c r="L321" t="n">
         <v>24.01000000000001</v>
@@ -16710,7 +16728,7 @@
         <v>25.6</v>
       </c>
       <c r="K322" t="n">
-        <v>18.18181818181829</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L322" t="n">
         <v>24.00000000000001</v>
@@ -16761,7 +16779,7 @@
         <v>25.7</v>
       </c>
       <c r="K323" t="n">
-        <v>14.28571428571419</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L323" t="n">
         <v>23.99000000000002</v>
@@ -16812,7 +16830,7 @@
         <v>25.7</v>
       </c>
       <c r="K324" t="n">
-        <v>9.999999999999982</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L324" t="n">
         <v>23.97000000000001</v>
@@ -16863,7 +16881,7 @@
         <v>25.7</v>
       </c>
       <c r="K325" t="n">
-        <v>15.78947368421039</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L325" t="n">
         <v>23.96000000000002</v>
@@ -16914,7 +16932,7 @@
         <v>25.7</v>
       </c>
       <c r="K326" t="n">
-        <v>11.11111111111107</v>
+        <v>-60.00000000000056</v>
       </c>
       <c r="L326" t="n">
         <v>23.94000000000001</v>
@@ -16965,7 +16983,7 @@
         <v>25.7</v>
       </c>
       <c r="K327" t="n">
-        <v>5.882352941176348</v>
+        <v>-50.00000000000089</v>
       </c>
       <c r="L327" t="n">
         <v>23.91000000000001</v>
@@ -17016,7 +17034,7 @@
         <v>25.8</v>
       </c>
       <c r="K328" t="n">
-        <v>17.64705882352946</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L328" t="n">
         <v>23.90000000000001</v>
@@ -17067,7 +17085,7 @@
         <v>25.8</v>
       </c>
       <c r="K329" t="n">
-        <v>6.666666666666761</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L329" t="n">
         <v>23.91000000000001</v>
@@ -17118,7 +17136,7 @@
         <v>25.8</v>
       </c>
       <c r="K330" t="n">
-        <v>0</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L330" t="n">
         <v>23.92000000000001</v>
@@ -17169,7 +17187,7 @@
         <v>25.8</v>
       </c>
       <c r="K331" t="n">
-        <v>16.66666666666662</v>
+        <v>100</v>
       </c>
       <c r="L331" t="n">
         <v>23.93000000000001</v>
@@ -17220,7 +17238,7 @@
         <v>25.8</v>
       </c>
       <c r="K332" t="n">
-        <v>9.090909090909207</v>
+        <v>100</v>
       </c>
       <c r="L332" t="n">
         <v>23.95000000000002</v>
@@ -17271,7 +17289,7 @@
         <v>26</v>
       </c>
       <c r="K333" t="n">
-        <v>16.66666666666662</v>
+        <v>100</v>
       </c>
       <c r="L333" t="n">
         <v>23.98000000000001</v>
@@ -17322,7 +17340,7 @@
         <v>26</v>
       </c>
       <c r="K334" t="n">
-        <v>9.090909090908914</v>
+        <v>100</v>
       </c>
       <c r="L334" t="n">
         <v>24.01000000000002</v>
@@ -17373,7 +17391,7 @@
         <v>26.1</v>
       </c>
       <c r="K335" t="n">
-        <v>27.27272727272739</v>
+        <v>100</v>
       </c>
       <c r="L335" t="n">
         <v>24.05000000000001</v>
@@ -17424,7 +17442,7 @@
         <v>26.4</v>
       </c>
       <c r="K336" t="n">
-        <v>38.46153846153855</v>
+        <v>100</v>
       </c>
       <c r="L336" t="n">
         <v>24.12000000000001</v>
@@ -17475,7 +17493,7 @@
         <v>26.5</v>
       </c>
       <c r="K337" t="n">
-        <v>23.07692307692312</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L337" t="n">
         <v>24.18000000000001</v>
@@ -17526,7 +17544,7 @@
         <v>26.5</v>
       </c>
       <c r="K338" t="n">
-        <v>33.33333333333314</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L338" t="n">
         <v>24.23000000000002</v>
@@ -17577,7 +17595,7 @@
         <v>26.6</v>
       </c>
       <c r="K339" t="n">
-        <v>63.63636363636381</v>
+        <v>74.99999999999977</v>
       </c>
       <c r="L339" t="n">
         <v>24.29000000000002</v>
@@ -17628,7 +17646,7 @@
         <v>26.70000000000001</v>
       </c>
       <c r="K340" t="n">
-        <v>50</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L340" t="n">
         <v>24.34000000000002</v>
@@ -17679,7 +17697,7 @@
         <v>26.80000000000001</v>
       </c>
       <c r="K341" t="n">
-        <v>38.46153846153834</v>
+        <v>39.99999999999957</v>
       </c>
       <c r="L341" t="n">
         <v>24.38000000000002</v>
@@ -17730,7 +17748,7 @@
         <v>26.80000000000001</v>
       </c>
       <c r="K342" t="n">
-        <v>49.99999999999956</v>
+        <v>24.99999999999967</v>
       </c>
       <c r="L342" t="n">
         <v>24.42000000000002</v>
@@ -17781,7 +17799,7 @@
         <v>27.00000000000001</v>
       </c>
       <c r="K343" t="n">
-        <v>53.8461538461536</v>
+        <v>39.99999999999979</v>
       </c>
       <c r="L343" t="n">
         <v>24.46000000000002</v>
@@ -17832,7 +17850,7 @@
         <v>27.10000000000001</v>
       </c>
       <c r="K344" t="n">
-        <v>42.85714285714256</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L344" t="n">
         <v>24.49000000000002</v>
@@ -17883,7 +17901,7 @@
         <v>27.20000000000001</v>
       </c>
       <c r="K345" t="n">
-        <v>33.33333333333302</v>
+        <v>-25</v>
       </c>
       <c r="L345" t="n">
         <v>24.50000000000002</v>
@@ -17934,7 +17952,7 @@
         <v>27.20000000000001</v>
       </c>
       <c r="K346" t="n">
-        <v>33.33333333333302</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L346" t="n">
         <v>24.48000000000001</v>
@@ -17985,7 +18003,7 @@
         <v>27.50000000000001</v>
       </c>
       <c r="K347" t="n">
-        <v>44.44444444444412</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L347" t="n">
         <v>24.50000000000002</v>
@@ -18036,7 +18054,7 @@
         <v>27.50000000000001</v>
       </c>
       <c r="K348" t="n">
-        <v>41.17647058823493</v>
+        <v>11.11111111111076</v>
       </c>
       <c r="L348" t="n">
         <v>24.52000000000002</v>
@@ -18087,7 +18105,7 @@
         <v>27.90000000000001</v>
       </c>
       <c r="K349" t="n">
-        <v>14.28571428571424</v>
+        <v>-16.66666666666652</v>
       </c>
       <c r="L349" t="n">
         <v>24.49000000000002</v>
@@ -18138,7 +18156,7 @@
         <v>28.00000000000001</v>
       </c>
       <c r="K350" t="n">
-        <v>18.18181818181803</v>
+        <v>0</v>
       </c>
       <c r="L350" t="n">
         <v>24.48000000000002</v>
@@ -18189,7 +18207,7 @@
         <v>28.30000000000001</v>
       </c>
       <c r="K351" t="n">
-        <v>27.99999999999985</v>
+        <v>20</v>
       </c>
       <c r="L351" t="n">
         <v>24.51000000000002</v>
@@ -18240,7 +18258,7 @@
         <v>28.30000000000001</v>
       </c>
       <c r="K352" t="n">
-        <v>27.99999999999985</v>
+        <v>7.692307692307525</v>
       </c>
       <c r="L352" t="n">
         <v>24.54000000000002</v>
@@ -18291,7 +18309,7 @@
         <v>28.40000000000001</v>
       </c>
       <c r="K353" t="n">
-        <v>24.99999999999993</v>
+        <v>23.07692307692312</v>
       </c>
       <c r="L353" t="n">
         <v>24.56000000000002</v>
@@ -18342,7 +18360,7 @@
         <v>28.50000000000001</v>
       </c>
       <c r="K354" t="n">
-        <v>19.99999999999989</v>
+        <v>23.07692307692312</v>
       </c>
       <c r="L354" t="n">
         <v>24.58000000000002</v>
@@ -18393,7 +18411,7 @@
         <v>28.60000000000001</v>
       </c>
       <c r="K355" t="n">
-        <v>11.99999999999998</v>
+        <v>14.2857142857145</v>
       </c>
       <c r="L355" t="n">
         <v>24.60000000000002</v>
@@ -18444,7 +18462,7 @@
         <v>28.90000000000001</v>
       </c>
       <c r="K356" t="n">
-        <v>11.99999999999985</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L356" t="n">
         <v>24.65000000000002</v>
@@ -18495,7 +18513,7 @@
         <v>29.20000000000001</v>
       </c>
       <c r="K357" t="n">
-        <v>25.92592592592584</v>
+        <v>29.41176470588243</v>
       </c>
       <c r="L357" t="n">
         <v>24.70000000000002</v>
@@ -18546,7 +18564,7 @@
         <v>30.10000000000001</v>
       </c>
       <c r="K358" t="n">
-        <v>-5.555555555555528</v>
+        <v>0</v>
       </c>
       <c r="L358" t="n">
         <v>24.66000000000003</v>
@@ -18597,7 +18615,7 @@
         <v>30.50000000000001</v>
       </c>
       <c r="K359" t="n">
-        <v>2.564102564102508</v>
+        <v>12.00000000000005</v>
       </c>
       <c r="L359" t="n">
         <v>24.70000000000002</v>
@@ -18648,7 +18666,7 @@
         <v>30.70000000000001</v>
       </c>
       <c r="K360" t="n">
-        <v>0</v>
+        <v>-8.33333333333332</v>
       </c>
       <c r="L360" t="n">
         <v>24.71000000000002</v>
@@ -18699,7 +18717,7 @@
         <v>30.70000000000001</v>
       </c>
       <c r="K361" t="n">
-        <v>2.564102564102602</v>
+        <v>-8.33333333333332</v>
       </c>
       <c r="L361" t="n">
         <v>24.69000000000003</v>
@@ -18750,7 +18768,7 @@
         <v>30.90000000000001</v>
       </c>
       <c r="K362" t="n">
-        <v>-2.439024390243852</v>
+        <v>-20.00000000000006</v>
       </c>
       <c r="L362" t="n">
         <v>24.65000000000003</v>
@@ -18801,7 +18819,7 @@
         <v>31.1</v>
       </c>
       <c r="K363" t="n">
-        <v>-2.43902439024394</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L363" t="n">
         <v>24.62000000000003</v>
@@ -18852,7 +18870,7 @@
         <v>31.20000000000001</v>
       </c>
       <c r="K364" t="n">
-        <v>-2.43902439024394</v>
+        <v>-7.692307692307819</v>
       </c>
       <c r="L364" t="n">
         <v>24.59000000000002</v>
@@ -18903,7 +18921,7 @@
         <v>31.3</v>
       </c>
       <c r="K365" t="n">
-        <v>-2.439024390243856</v>
+        <v>-24.99999999999996</v>
       </c>
       <c r="L365" t="n">
         <v>24.56000000000003</v>
@@ -18954,7 +18972,7 @@
         <v>31.4</v>
       </c>
       <c r="K366" t="n">
-        <v>0</v>
+        <v>-36.36363636363652</v>
       </c>
       <c r="L366" t="n">
         <v>24.51000000000003</v>
@@ -19005,7 +19023,7 @@
         <v>31.4</v>
       </c>
       <c r="K367" t="n">
-        <v>-7.692307692307734</v>
+        <v>7.692307692307566</v>
       </c>
       <c r="L367" t="n">
         <v>24.43000000000003</v>
@@ -19056,7 +19074,7 @@
         <v>31.6</v>
       </c>
       <c r="K368" t="n">
-        <v>-12.19512195121955</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L368" t="n">
         <v>24.42000000000003</v>
@@ -19107,7 +19125,7 @@
         <v>31.7</v>
       </c>
       <c r="K369" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L369" t="n">
         <v>24.38000000000003</v>
@@ -19158,7 +19176,7 @@
         <v>31.8</v>
       </c>
       <c r="K370" t="n">
-        <v>0</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L370" t="n">
         <v>24.37000000000003</v>
@@ -19209,7 +19227,7 @@
         <v>31.9</v>
       </c>
       <c r="K371" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L371" t="n">
         <v>24.35000000000003</v>
@@ -19260,7 +19278,7 @@
         <v>31.9</v>
       </c>
       <c r="K372" t="n">
-        <v>-11.11111111111111</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="L372" t="n">
         <v>24.35000000000003</v>
@@ -19311,7 +19329,7 @@
         <v>31.9</v>
       </c>
       <c r="K373" t="n">
-        <v>-14.28571428571434</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L373" t="n">
         <v>24.33000000000003</v>
@@ -19362,7 +19380,7 @@
         <v>32</v>
       </c>
       <c r="K374" t="n">
-        <v>-8.571428571428635</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L374" t="n">
         <v>24.33000000000003</v>
@@ -19413,7 +19431,7 @@
         <v>32.2</v>
       </c>
       <c r="K375" t="n">
-        <v>-11.11111111111122</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="L375" t="n">
         <v>24.32000000000003</v>
@@ -19464,7 +19482,7 @@
         <v>32.39999999999999</v>
       </c>
       <c r="K376" t="n">
-        <v>-14.28571428571436</v>
+        <v>0</v>
       </c>
       <c r="L376" t="n">
         <v>24.32000000000003</v>
@@ -19515,7 +19533,7 @@
         <v>32.49999999999999</v>
       </c>
       <c r="K377" t="n">
-        <v>-27.27272727272743</v>
+        <v>11.11111111111146</v>
       </c>
       <c r="L377" t="n">
         <v>24.31000000000002</v>
@@ -19566,7 +19584,7 @@
         <v>32.59999999999999</v>
       </c>
       <c r="K378" t="n">
-        <v>-4.000000000000091</v>
+        <v>-11.11111111111146</v>
       </c>
       <c r="L378" t="n">
         <v>24.31000000000002</v>
@@ -19617,7 +19635,7 @@
         <v>32.69999999999999</v>
       </c>
       <c r="K379" t="n">
-        <v>-18.18181818181827</v>
+        <v>-11.11111111111102</v>
       </c>
       <c r="L379" t="n">
         <v>24.31000000000002</v>
@@ -19668,7 +19686,7 @@
         <v>32.79999999999999</v>
       </c>
       <c r="K380" t="n">
-        <v>-14.28571428571443</v>
+        <v>-11.11111111111137</v>
       </c>
       <c r="L380" t="n">
         <v>24.29000000000002</v>
@@ -19719,7 +19737,7 @@
         <v>32.89999999999999</v>
       </c>
       <c r="K381" t="n">
-        <v>-18.18181818181824</v>
+        <v>-20.00000000000007</v>
       </c>
       <c r="L381" t="n">
         <v>24.27000000000002</v>
@@ -19770,7 +19788,7 @@
         <v>32.89999999999999</v>
       </c>
       <c r="K382" t="n">
-        <v>-10.00000000000004</v>
+        <v>-20.00000000000007</v>
       </c>
       <c r="L382" t="n">
         <v>24.25000000000002</v>
@@ -19821,7 +19839,7 @@
         <v>32.89999999999999</v>
       </c>
       <c r="K383" t="n">
-        <v>-22.22222222222231</v>
+        <v>-33.3333333333332</v>
       </c>
       <c r="L383" t="n">
         <v>24.23000000000003</v>
@@ -19872,7 +19890,7 @@
         <v>32.99999999999999</v>
       </c>
       <c r="K384" t="n">
-        <v>-22.22222222222231</v>
+        <v>-25</v>
       </c>
       <c r="L384" t="n">
         <v>24.19000000000002</v>
@@ -19923,7 +19941,7 @@
         <v>33.19999999999999</v>
       </c>
       <c r="K385" t="n">
-        <v>-5.263157894736961</v>
+        <v>-25</v>
       </c>
       <c r="L385" t="n">
         <v>24.19000000000003</v>
@@ -19974,7 +19992,7 @@
         <v>33.19999999999999</v>
       </c>
       <c r="K386" t="n">
-        <v>-11.11111111111116</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L386" t="n">
         <v>24.17000000000002</v>
@@ -20025,7 +20043,7 @@
         <v>33.39999999999999</v>
       </c>
       <c r="K387" t="n">
-        <v>0</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L387" t="n">
         <v>24.18000000000002</v>
@@ -20076,7 +20094,7 @@
         <v>33.39999999999999</v>
       </c>
       <c r="K388" t="n">
-        <v>11.11111111111113</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L388" t="n">
         <v>24.20000000000002</v>
@@ -20127,7 +20145,7 @@
         <v>33.49999999999999</v>
       </c>
       <c r="K389" t="n">
-        <v>0</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L389" t="n">
         <v>24.20000000000002</v>
@@ -20178,7 +20196,7 @@
         <v>33.49999999999999</v>
       </c>
       <c r="K390" t="n">
-        <v>-5.882352941176397</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L390" t="n">
         <v>24.21000000000003</v>
@@ -20229,7 +20247,7 @@
         <v>33.59999999999999</v>
       </c>
       <c r="K391" t="n">
-        <v>-5.882352941176594</v>
+        <v>14.28571428571407</v>
       </c>
       <c r="L391" t="n">
         <v>24.22000000000002</v>
@@ -20280,7 +20298,7 @@
         <v>33.79999999999998</v>
       </c>
       <c r="K392" t="n">
-        <v>5.263157894736773</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L392" t="n">
         <v>24.25000000000002</v>
@@ -20331,7 +20349,7 @@
         <v>33.99999999999999</v>
       </c>
       <c r="K393" t="n">
-        <v>14.28571428571441</v>
+        <v>60.00000000000056</v>
       </c>
       <c r="L393" t="n">
         <v>24.30000000000003</v>
@@ -20382,7 +20400,7 @@
         <v>34.19999999999999</v>
       </c>
       <c r="K394" t="n">
-        <v>0</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L394" t="n">
         <v>24.34000000000002</v>
@@ -20433,7 +20451,7 @@
         <v>34.19999999999999</v>
       </c>
       <c r="K395" t="n">
-        <v>10</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L395" t="n">
         <v>24.36000000000002</v>
@@ -20484,7 +20502,7 @@
         <v>34.29999999999998</v>
       </c>
       <c r="K396" t="n">
-        <v>-5.263157894736754</v>
+        <v>-11.11111111111098</v>
       </c>
       <c r="L396" t="n">
         <v>24.37000000000003</v>
@@ -20535,7 +20553,7 @@
         <v>34.29999999999998</v>
       </c>
       <c r="K397" t="n">
-        <v>0</v>
+        <v>-11.11111111111098</v>
       </c>
       <c r="L397" t="n">
         <v>24.36000000000003</v>

--- a/BackTest/2019-11-01 BackTest CMT.xlsx
+++ b/BackTest/2019-11-01 BackTest CMT.xlsx
@@ -5736,20 +5736,14 @@
         <v>23.05000000000001</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>22.4</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5784,11 +5778,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5816,18 +5806,18 @@
         <v>23.02166666666667</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="K155" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5863,10 +5853,12 @@
       <c r="J156" t="n">
         <v>22.5</v>
       </c>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M156" t="n">
@@ -5904,10 +5896,12 @@
       <c r="J157" t="n">
         <v>22.6</v>
       </c>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M157" t="n">
@@ -5937,20 +5931,14 @@
         <v>22.985</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>22.4</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5978,20 +5966,14 @@
         <v>22.96833333333334</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>22.4</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6019,20 +6001,14 @@
         <v>22.95333333333333</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>22.4</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6060,20 +6036,14 @@
         <v>22.94</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6101,20 +6071,14 @@
         <v>22.92833333333333</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6142,20 +6106,14 @@
         <v>22.92</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6183,20 +6141,14 @@
         <v>22.91</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6224,20 +6176,14 @@
         <v>22.89833333333333</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6265,20 +6211,14 @@
         <v>22.89</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6306,20 +6246,14 @@
         <v>22.88166666666667</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>22.6</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6347,20 +6281,14 @@
         <v>22.87333333333333</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>22.6</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6388,20 +6316,14 @@
         <v>22.86166666666667</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>22.6</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6429,20 +6351,14 @@
         <v>22.85166666666667</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>22.6</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6470,20 +6386,14 @@
         <v>22.83833333333333</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6511,20 +6421,14 @@
         <v>22.83</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>22.6</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6552,20 +6456,14 @@
         <v>22.82</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6593,20 +6491,14 @@
         <v>22.80666666666667</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6634,20 +6526,14 @@
         <v>22.79666666666667</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>22.6</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6675,20 +6561,14 @@
         <v>22.78666666666667</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>22.6</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6716,20 +6596,14 @@
         <v>22.77833333333333</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>22.6</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6757,20 +6631,14 @@
         <v>22.77166666666666</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6798,20 +6666,14 @@
         <v>22.76333333333333</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6839,20 +6701,14 @@
         <v>22.75666666666666</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>22.8</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6880,20 +6736,14 @@
         <v>22.75</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>22.8</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6921,20 +6771,14 @@
         <v>22.73999999999999</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>22.8</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6962,20 +6806,14 @@
         <v>22.735</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>22.8</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7003,20 +6841,14 @@
         <v>22.73</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>22.8</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7044,20 +6876,14 @@
         <v>22.725</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7085,20 +6911,14 @@
         <v>22.72166666666666</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>22.8</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7126,20 +6946,14 @@
         <v>22.71666666666666</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7167,20 +6981,14 @@
         <v>22.71166666666666</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7208,20 +7016,14 @@
         <v>22.70499999999999</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>22.6</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7249,20 +7051,14 @@
         <v>22.69666666666666</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>22.6</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7290,20 +7086,14 @@
         <v>22.69333333333333</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>22.8</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7331,20 +7121,14 @@
         <v>22.68333333333333</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>22.6</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7372,20 +7156,14 @@
         <v>22.67166666666666</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>22.6</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7413,20 +7191,14 @@
         <v>22.66333333333332</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>22.6</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7454,20 +7226,14 @@
         <v>22.65666666666666</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7495,20 +7261,14 @@
         <v>22.64833333333333</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7536,20 +7296,14 @@
         <v>22.64333333333333</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7577,20 +7331,14 @@
         <v>22.63999999999999</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7618,20 +7366,14 @@
         <v>22.63666666666666</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7659,20 +7401,14 @@
         <v>22.63666666666666</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7700,20 +7436,14 @@
         <v>22.63499999999999</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7741,20 +7471,14 @@
         <v>22.63499999999999</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7782,20 +7506,14 @@
         <v>22.63999999999999</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7823,20 +7541,14 @@
         <v>22.63833333333332</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>22.8</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7864,20 +7576,14 @@
         <v>22.63499999999999</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>22.8</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7905,20 +7611,14 @@
         <v>22.63333333333332</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>22.8</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7946,20 +7646,14 @@
         <v>22.63499999999999</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>22.8</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7987,20 +7681,14 @@
         <v>22.63666666666666</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8028,20 +7716,14 @@
         <v>22.64166666666666</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>22.8</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8069,20 +7751,14 @@
         <v>22.64666666666666</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>22.9</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8110,20 +7786,14 @@
         <v>22.64999999999999</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8151,20 +7821,14 @@
         <v>22.65833333333332</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>22.9</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8192,20 +7856,14 @@
         <v>22.665</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>22.9</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8233,20 +7891,14 @@
         <v>22.67833333333333</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>22.9</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8274,20 +7926,14 @@
         <v>22.69333333333333</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8322,11 +7968,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8361,11 +8003,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8400,11 +8038,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8439,11 +8073,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8474,15 +8104,11 @@
         <v>0</v>
       </c>
       <c r="I220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8513,15 +8139,11 @@
         <v>0</v>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8556,11 +8178,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8595,11 +8213,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8634,11 +8248,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8673,11 +8283,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8712,11 +8318,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8751,11 +8353,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8790,11 +8388,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8829,11 +8423,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8868,11 +8458,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8907,11 +8493,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8946,11 +8528,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8985,11 +8563,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9024,11 +8598,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9063,11 +8633,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9102,11 +8668,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9141,11 +8703,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9180,11 +8738,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9219,11 +8773,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9258,11 +8808,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9297,11 +8843,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9336,11 +8878,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9375,11 +8913,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9414,11 +8948,7 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9453,11 +8983,7 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9492,11 +9018,7 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9531,11 +9053,7 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9570,11 +9088,7 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9609,11 +9123,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9648,11 +9158,7 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9687,11 +9193,7 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9726,11 +9228,7 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9765,11 +9263,7 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9804,11 +9298,7 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9843,11 +9333,7 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9882,11 +9368,7 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9921,11 +9403,7 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9960,11 +9438,7 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9999,11 +9473,7 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10038,11 +9508,7 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10077,11 +9543,7 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10116,11 +9578,7 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10155,11 +9613,7 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10194,11 +9648,7 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10233,11 +9683,7 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10272,11 +9718,7 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10311,11 +9753,7 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10350,11 +9788,7 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10389,11 +9823,7 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10428,11 +9858,7 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10467,11 +9893,7 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10506,11 +9928,7 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10545,11 +9963,7 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10584,11 +9998,7 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10623,11 +10033,7 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10662,11 +10068,7 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10701,11 +10103,7 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10740,11 +10138,7 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10779,11 +10173,7 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10818,11 +10208,7 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10857,11 +10243,7 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10896,11 +10278,7 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10935,11 +10313,7 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L283" t="inlineStr"/>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10974,11 +10348,7 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L284" t="inlineStr"/>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -11013,11 +10383,7 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L285" t="inlineStr"/>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -11052,11 +10418,7 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -11091,11 +10453,7 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L287" t="inlineStr"/>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11130,11 +10488,7 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L288" t="inlineStr"/>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11169,11 +10523,7 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L289" t="inlineStr"/>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11208,11 +10558,7 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L290" t="inlineStr"/>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11247,11 +10593,7 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L291" t="inlineStr"/>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11286,11 +10628,7 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L292" t="inlineStr"/>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11325,11 +10663,7 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L293" t="inlineStr"/>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11364,11 +10698,7 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L294" t="inlineStr"/>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11403,11 +10733,7 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L295" t="inlineStr"/>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11442,11 +10768,7 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L296" t="inlineStr"/>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11481,11 +10803,7 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L297" t="inlineStr"/>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11520,11 +10838,7 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L298" t="inlineStr"/>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11559,11 +10873,7 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L299" t="inlineStr"/>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11598,11 +10908,7 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L300" t="inlineStr"/>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11637,11 +10943,7 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L301" t="inlineStr"/>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11676,11 +10978,7 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L302" t="inlineStr"/>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11715,11 +11013,7 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L303" t="inlineStr"/>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11754,11 +11048,7 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L304" t="inlineStr"/>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11793,11 +11083,7 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L305" t="inlineStr"/>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11832,11 +11118,7 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L306" t="inlineStr"/>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11871,11 +11153,7 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L307" t="inlineStr"/>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11910,11 +11188,7 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L308" t="inlineStr"/>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11949,11 +11223,7 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L309" t="inlineStr"/>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11988,11 +11258,7 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L310" t="inlineStr"/>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -12027,11 +11293,7 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L311" t="inlineStr"/>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -12066,11 +11328,7 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L312" t="inlineStr"/>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -12105,11 +11363,7 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L313" t="inlineStr"/>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -12144,11 +11398,7 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L314" t="inlineStr"/>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -12183,11 +11433,7 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L315" t="inlineStr"/>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -12222,11 +11468,7 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L316" t="inlineStr"/>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -12261,11 +11503,7 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L317" t="inlineStr"/>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -12300,11 +11538,7 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L318" t="inlineStr"/>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -12335,16 +11569,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M319" t="inlineStr"/>
+      <c r="L319" t="inlineStr"/>
+      <c r="M319" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12372,7 +11604,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
@@ -13072,7 +12304,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
@@ -13107,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
@@ -13142,7 +12374,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
@@ -13387,7 +12619,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
@@ -13422,7 +12654,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
@@ -13737,7 +12969,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>

--- a/BackTest/2019-11-01 BackTest CMT.xlsx
+++ b/BackTest/2019-11-01 BackTest CMT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-785180.8653426779</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-784360.060142678</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-784360.060142678</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-810112.762842678</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-828789.748942678</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-822130.748942678</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-822130.748942678</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-822130.748942678</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-844919.561142678</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-843417.561242678</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-843417.561242678</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-843417.561242678</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-843417.561242678</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-808585.286642678</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-808585.286642678</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-821585.286642678</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-821500.286642678</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-821500.286642678</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-821500.286642678</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-821500.286642678</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-821500.286642678</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-842100.286642678</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -7348,11 +7348,17 @@
         <v>-1304998.750903378</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>22.5</v>
+      </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7381,15 +7387,13 @@
         <v>-1119210.460203378</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
-      </c>
-      <c r="I212" t="n">
-        <v>22.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L212" t="n">
@@ -7420,11 +7424,9 @@
         <v>-1166074.263403377</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
-      </c>
-      <c r="I213" t="n">
-        <v>22.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
@@ -7459,7 +7461,7 @@
         <v>-1166064.263403377</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
         <v>22.4</v>
@@ -7498,7 +7500,7 @@
         <v>-1101454.263403377</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>22.5</v>
@@ -7537,7 +7539,7 @@
         <v>-1101454.263403377</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I216" t="n">
         <v>22.6</v>
@@ -7576,7 +7578,7 @@
         <v>-1140521.446203378</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I217" t="n">
         <v>22.6</v>
@@ -7615,7 +7617,7 @@
         <v>-1140521.446203378</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
         <v>22.4</v>
@@ -7654,7 +7656,7 @@
         <v>-1135511.446203378</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>22.4</v>
@@ -7693,7 +7695,7 @@
         <v>-1135511.446203378</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I220" t="n">
         <v>22.5</v>
@@ -7732,9 +7734,11 @@
         <v>-1089595.159603378</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>22.5</v>
+      </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
@@ -7769,7 +7773,7 @@
         <v>-1073395.159603378</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I222" t="n">
         <v>22.6</v>
@@ -7808,7 +7812,7 @@
         <v>-1073395.159603378</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223" t="n">
         <v>22.7</v>
@@ -7847,7 +7851,7 @@
         <v>-1121595.159603378</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
         <v>22.7</v>
@@ -7886,9 +7890,11 @@
         <v>-1121047.186103377</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>22.5</v>
+      </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
@@ -7923,7 +7929,7 @@
         <v>-1127731.522303378</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
         <v>22.7</v>
@@ -7962,9 +7968,11 @@
         <v>-1127731.522303378</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>22.6</v>
+      </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
@@ -7999,7 +8007,7 @@
         <v>-1254208.720003377</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>22.6</v>
@@ -8038,7 +8046,7 @@
         <v>-1245668.720003377</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>22.5</v>
@@ -8077,7 +8085,7 @@
         <v>-1287654.518103377</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>22.6</v>
@@ -8116,7 +8124,7 @@
         <v>-1232854.518103377</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>22.5</v>
@@ -8155,11 +8163,9 @@
         <v>-1232719.987303377</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
-      </c>
-      <c r="I232" t="n">
-        <v>22.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
@@ -8231,11 +8237,9 @@
         <v>-1256723.338803377</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
-      </c>
-      <c r="I234" t="n">
-        <v>22.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
@@ -8270,7 +8274,7 @@
         <v>-1256723.338803377</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235" t="n">
         <v>22.6</v>
@@ -8309,7 +8313,7 @@
         <v>-1256723.338803377</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
         <v>22.6</v>
@@ -8348,7 +8352,7 @@
         <v>-1244899.550303377</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>22.6</v>
@@ -8387,7 +8391,7 @@
         <v>-1244899.550303377</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>22.7</v>
@@ -8426,9 +8430,11 @@
         <v>-1244790.061303377</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>22.7</v>
+      </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
@@ -8463,11 +8469,9 @@
         <v>-1244790.061303377</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
-      </c>
-      <c r="I240" t="n">
-        <v>22.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
@@ -8502,11 +8506,9 @@
         <v>-1244790.061303377</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
-      </c>
-      <c r="I241" t="n">
-        <v>22.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
@@ -9022,9 +9024,11 @@
         <v>-1426218.949203377</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>22.7</v>
+      </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
@@ -9059,7 +9063,7 @@
         <v>-1426218.949203377</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
         <v>22.7</v>
@@ -9098,7 +9102,7 @@
         <v>-1426218.949203377</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I257" t="n">
         <v>22.7</v>
@@ -9137,7 +9141,7 @@
         <v>-1426218.949203377</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>22.7</v>
@@ -9176,7 +9180,7 @@
         <v>-1426218.949203377</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>22.7</v>
@@ -9215,7 +9219,7 @@
         <v>-1426218.949203377</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>22.7</v>
@@ -9254,7 +9258,7 @@
         <v>-1426218.949203377</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>22.7</v>
@@ -9293,7 +9297,7 @@
         <v>-1426218.949203377</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>22.7</v>
@@ -9332,7 +9336,7 @@
         <v>-1425780.352712149</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>22.7</v>
@@ -9371,11 +9375,9 @@
         <v>-1482940.361320921</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
-      </c>
-      <c r="I264" t="n">
-        <v>22.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
@@ -9410,11 +9412,9 @@
         <v>-1481880.753720921</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
-      </c>
-      <c r="I265" t="n">
-        <v>22.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
@@ -9449,11 +9449,9 @@
         <v>-1481880.753720921</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
-      </c>
-      <c r="I266" t="n">
-        <v>22.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
@@ -9488,7 +9486,7 @@
         <v>-1503280.753720921</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>22.8</v>
@@ -9527,7 +9525,7 @@
         <v>-1503270.753720921</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>22.7</v>
@@ -9566,11 +9564,9 @@
         <v>-1503260.753720921</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
-      </c>
-      <c r="I269" t="n">
-        <v>22.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
@@ -9642,11 +9638,9 @@
         <v>-1507569.517620921</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
-      </c>
-      <c r="I271" t="n">
-        <v>22.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
@@ -13307,7 +13301,7 @@
         <v>-1717562.037886422</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13566,16 +13560,18 @@
         <v>-1627225.576586422</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L377" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L377" t="n">
+        <v>1</v>
+      </c>
       <c r="M377" t="inlineStr"/>
     </row>
     <row r="378">
@@ -13601,11 +13597,15 @@
         <v>-1688712.957286422</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13634,11 +13634,15 @@
         <v>-1688712.957286422</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13667,11 +13671,15 @@
         <v>-1688712.957286422</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13700,11 +13708,15 @@
         <v>-1689764.571186422</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13737,7 +13749,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13766,11 +13782,15 @@
         <v>-1683905.958586422</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13799,11 +13819,15 @@
         <v>-1683905.958586422</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13832,11 +13856,15 @@
         <v>-1683905.958586422</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13869,7 +13897,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13902,7 +13934,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13935,7 +13971,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13968,7 +14008,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14001,7 +14045,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14034,7 +14082,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14063,11 +14115,15 @@
         <v>-1642051.476936422</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14096,11 +14152,15 @@
         <v>-1642051.476936422</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14133,7 +14193,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14162,11 +14226,15 @@
         <v>-1549616.794636422</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14195,11 +14263,15 @@
         <v>-1617306.905236422</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14228,11 +14300,15 @@
         <v>-1617306.905236422</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14261,11 +14337,15 @@
         <v>-1543192.284336422</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14294,11 +14374,15 @@
         <v>-1644146.941436422</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14327,11 +14411,15 @@
         <v>-1738345.536036422</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14360,11 +14448,15 @@
         <v>-1738345.536036422</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14393,11 +14485,15 @@
         <v>-1642771.982836422</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14426,11 +14522,15 @@
         <v>-1643412.264736422</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14463,7 +14563,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14496,7 +14600,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14529,7 +14637,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14562,7 +14674,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14591,11 +14707,15 @@
         <v>-1616568.450636422</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14624,11 +14744,15 @@
         <v>-1531476.006136422</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14657,11 +14781,15 @@
         <v>-1498009.859336422</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14690,11 +14818,15 @@
         <v>-1498009.859336422</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14723,11 +14855,15 @@
         <v>-1425602.319136422</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14756,11 +14892,15 @@
         <v>-1479942.809336422</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14789,11 +14929,15 @@
         <v>-1487351.737136421</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14822,11 +14966,15 @@
         <v>-1485323.985636421</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14855,14 +15003,16 @@
         <v>-1005276.502355469</v>
       </c>
       <c r="H416" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
-      <c r="L416" t="n">
-        <v>1</v>
-      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L416" t="inlineStr"/>
       <c r="M416" t="inlineStr"/>
     </row>
     <row r="417">
@@ -14888,7 +15038,7 @@
         <v>-1479486.680155469</v>
       </c>
       <c r="H417" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14921,7 +15071,7 @@
         <v>-1472519.342155469</v>
       </c>
       <c r="H418" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14954,7 +15104,7 @@
         <v>-1481697.872755469</v>
       </c>
       <c r="H419" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14987,7 +15137,7 @@
         <v>-1481697.872755469</v>
       </c>
       <c r="H420" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15020,7 +15170,7 @@
         <v>-1916104.798655469</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15053,7 +15203,7 @@
         <v>-1914504.798655469</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15119,7 +15269,7 @@
         <v>-2079615.216655469</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15823,6 +15973,6 @@
       <c r="M445" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest CMT.xlsx
+++ b/BackTest/2019-11-01 BackTest CMT.xlsx
@@ -3157,7 +3157,7 @@
         <v>-563749.1252933219</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-564734.1253933219</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-581954.1149933218</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-932984.4699933218</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-961858.7974933218</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-961430.0257933218</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-1081430.025793322</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-1243525.852493322</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-1236074.101993322</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-1619905.990920921</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-1619905.990920921</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10219,11 +10219,17 @@
         <v>-2151807.390486422</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>22.9</v>
+      </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10252,11 +10258,17 @@
         <v>-2137787.265586422</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>22.7</v>
+      </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10285,11 +10297,17 @@
         <v>-2123455.238286422</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>22.8</v>
+      </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10318,11 +10336,17 @@
         <v>-2099593.401486422</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>22.9</v>
+      </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10351,11 +10375,17 @@
         <v>-2099593.401486422</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>23</v>
+      </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10384,11 +10414,17 @@
         <v>-2099593.401486422</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>23</v>
+      </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10417,11 +10453,17 @@
         <v>-2099593.401486422</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>23</v>
+      </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10450,11 +10492,17 @@
         <v>-2099593.401486422</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>23</v>
+      </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10483,11 +10531,17 @@
         <v>-2099593.401486422</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>23</v>
+      </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10516,11 +10570,17 @@
         <v>-2099593.401486422</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>23</v>
+      </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10549,11 +10609,17 @@
         <v>-2099593.401486422</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>23</v>
+      </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10582,11 +10648,17 @@
         <v>-2099593.401486422</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>23</v>
+      </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10615,11 +10687,17 @@
         <v>-2073593.401486422</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>23</v>
+      </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10648,11 +10726,17 @@
         <v>-2073593.401486422</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>23.1</v>
+      </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10681,11 +10765,17 @@
         <v>-2127197.588486422</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>23.1</v>
+      </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10714,11 +10804,17 @@
         <v>-2127197.588486422</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>23</v>
+      </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10747,11 +10843,17 @@
         <v>-2127197.588486422</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>23</v>
+      </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10780,11 +10882,17 @@
         <v>-2127197.588486422</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>23</v>
+      </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10813,11 +10921,17 @@
         <v>-2027668.973786422</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>23</v>
+      </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10846,11 +10960,17 @@
         <v>-2027668.973786422</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>23.1</v>
+      </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10879,11 +10999,17 @@
         <v>-1981391.290786422</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>23.1</v>
+      </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10912,11 +11038,17 @@
         <v>-1981391.290786422</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>23.2</v>
+      </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10945,11 +11077,17 @@
         <v>-1981391.290786422</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>23.2</v>
+      </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10978,11 +11116,17 @@
         <v>-1981391.290786422</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>23.2</v>
+      </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11011,11 +11155,17 @@
         <v>-1992466.897586422</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>23.2</v>
+      </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11044,11 +11194,17 @@
         <v>-1973941.757286422</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>23.1</v>
+      </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11077,11 +11233,17 @@
         <v>-1865430.757286422</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>23.2</v>
+      </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11114,7 +11276,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11147,7 +11313,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11180,7 +11350,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11213,7 +11387,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11246,7 +11424,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11279,7 +11461,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11312,7 +11498,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11346,10 +11536,12 @@
       <c r="I332" t="n">
         <v>23.1</v>
       </c>
-      <c r="J332" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11383,12 +11575,10 @@
       <c r="I333" t="n">
         <v>23.2</v>
       </c>
-      <c r="J333" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L333" t="n">
@@ -11424,12 +11614,10 @@
       <c r="I334" t="n">
         <v>23.2</v>
       </c>
-      <c r="J334" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L334" t="n">
@@ -11465,10 +11653,12 @@
       <c r="I335" t="n">
         <v>23.2</v>
       </c>
-      <c r="J335" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11502,12 +11692,10 @@
       <c r="I336" t="n">
         <v>23.1</v>
       </c>
-      <c r="J336" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L336" t="n">
@@ -11543,12 +11731,10 @@
       <c r="I337" t="n">
         <v>23.3</v>
       </c>
-      <c r="J337" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L337" t="n">
@@ -11584,10 +11770,12 @@
       <c r="I338" t="n">
         <v>23.2</v>
       </c>
-      <c r="J338" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11621,12 +11809,10 @@
       <c r="I339" t="n">
         <v>23.2</v>
       </c>
-      <c r="J339" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L339" t="n">
@@ -11662,12 +11848,10 @@
       <c r="I340" t="n">
         <v>23.1</v>
       </c>
-      <c r="J340" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L340" t="n">
@@ -11703,10 +11887,12 @@
       <c r="I341" t="n">
         <v>23.2</v>
       </c>
-      <c r="J341" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11740,12 +11926,10 @@
       <c r="I342" t="n">
         <v>23.2</v>
       </c>
-      <c r="J342" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L342" t="n">
@@ -11781,12 +11965,10 @@
       <c r="I343" t="n">
         <v>23.2</v>
       </c>
-      <c r="J343" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L343" t="n">
@@ -11822,12 +12004,10 @@
       <c r="I344" t="n">
         <v>23.2</v>
       </c>
-      <c r="J344" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L344" t="n">
@@ -11863,9 +12043,7 @@
       <c r="I345" t="n">
         <v>23.2</v>
       </c>
-      <c r="J345" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11904,9 +12082,7 @@
       <c r="I346" t="n">
         <v>23.2</v>
       </c>
-      <c r="J346" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11945,9 +12121,7 @@
       <c r="I347" t="n">
         <v>23.2</v>
       </c>
-      <c r="J347" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11986,9 +12160,7 @@
       <c r="I348" t="n">
         <v>23.2</v>
       </c>
-      <c r="J348" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12027,9 +12199,7 @@
       <c r="I349" t="n">
         <v>23.2</v>
       </c>
-      <c r="J349" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12068,9 +12238,7 @@
       <c r="I350" t="n">
         <v>23.2</v>
       </c>
-      <c r="J350" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12109,9 +12277,7 @@
       <c r="I351" t="n">
         <v>23.2</v>
       </c>
-      <c r="J351" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12150,9 +12316,7 @@
       <c r="I352" t="n">
         <v>23.3</v>
       </c>
-      <c r="J352" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12191,9 +12355,7 @@
       <c r="I353" t="n">
         <v>23.4</v>
       </c>
-      <c r="J353" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12232,9 +12394,7 @@
       <c r="I354" t="n">
         <v>23.3</v>
       </c>
-      <c r="J354" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12273,9 +12433,7 @@
       <c r="I355" t="n">
         <v>23.3</v>
       </c>
-      <c r="J355" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12314,9 +12472,7 @@
       <c r="I356" t="n">
         <v>23.3</v>
       </c>
-      <c r="J356" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12355,9 +12511,7 @@
       <c r="I357" t="n">
         <v>23.3</v>
       </c>
-      <c r="J357" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12396,9 +12550,7 @@
       <c r="I358" t="n">
         <v>23.2</v>
       </c>
-      <c r="J358" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12437,9 +12589,7 @@
       <c r="I359" t="n">
         <v>23.2</v>
       </c>
-      <c r="J359" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12478,9 +12628,7 @@
       <c r="I360" t="n">
         <v>23.2</v>
       </c>
-      <c r="J360" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12519,9 +12667,7 @@
       <c r="I361" t="n">
         <v>23.3</v>
       </c>
-      <c r="J361" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12560,9 +12706,7 @@
       <c r="I362" t="n">
         <v>23.4</v>
       </c>
-      <c r="J362" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12596,1142 +12740,1274 @@
         <v>-1756657.585786422</v>
       </c>
       <c r="H363" t="n">
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="C364" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="D364" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="E364" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="F364" t="n">
+        <v>14979.9783</v>
+      </c>
+      <c r="G364" t="n">
+        <v>-1771637.564086422</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="C365" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="D365" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="E365" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="F365" t="n">
+        <v>14338.5667</v>
+      </c>
+      <c r="G365" t="n">
+        <v>-1757298.997386422</v>
+      </c>
+      <c r="H365" t="n">
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="C366" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="D366" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="E366" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F366" t="n">
+        <v>23645.9135</v>
+      </c>
+      <c r="G366" t="n">
+        <v>-1733653.083886422</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="C367" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="D367" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="E367" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="F367" t="n">
+        <v>40</v>
+      </c>
+      <c r="G367" t="n">
+        <v>-1733693.083886422</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="C368" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="D368" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="E368" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="F368" t="n">
+        <v>3131.046</v>
+      </c>
+      <c r="G368" t="n">
+        <v>-1730562.037886422</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>24</v>
+      </c>
+      <c r="C369" t="n">
+        <v>24</v>
+      </c>
+      <c r="D369" t="n">
+        <v>24</v>
+      </c>
+      <c r="E369" t="n">
+        <v>24</v>
+      </c>
+      <c r="F369" t="n">
+        <v>26000</v>
+      </c>
+      <c r="G369" t="n">
+        <v>-1704562.037886422</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="C370" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="D370" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="E370" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F370" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G370" t="n">
+        <v>-1717562.037886422</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="C371" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="D371" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="E371" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="F371" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G371" t="n">
+        <v>-1697562.037886422</v>
+      </c>
+      <c r="H371" t="n">
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>24</v>
+      </c>
+      <c r="C372" t="n">
+        <v>24</v>
+      </c>
+      <c r="D372" t="n">
+        <v>24</v>
+      </c>
+      <c r="E372" t="n">
+        <v>24</v>
+      </c>
+      <c r="F372" t="n">
+        <v>44600</v>
+      </c>
+      <c r="G372" t="n">
+        <v>-1652962.037886422</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>24</v>
+      </c>
+      <c r="C373" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="D373" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="E373" t="n">
+        <v>24</v>
+      </c>
+      <c r="F373" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G373" t="n">
+        <v>-1639962.037886422</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>24</v>
+      </c>
+      <c r="C374" t="n">
+        <v>24</v>
+      </c>
+      <c r="D374" t="n">
+        <v>24</v>
+      </c>
+      <c r="E374" t="n">
+        <v>24</v>
+      </c>
+      <c r="F374" t="n">
+        <v>2835.5387</v>
+      </c>
+      <c r="G374" t="n">
+        <v>-1642797.576586422</v>
+      </c>
+      <c r="H374" t="n">
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="C375" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="D375" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="E375" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="F375" t="n">
+        <v>27888.9336</v>
+      </c>
+      <c r="G375" t="n">
+        <v>-1614908.642986421</v>
+      </c>
+      <c r="H375" t="n">
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="C376" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="D376" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="E376" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F376" t="n">
+        <v>6809</v>
+      </c>
+      <c r="G376" t="n">
+        <v>-1608099.642986421</v>
+      </c>
+      <c r="H376" t="n">
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L376" t="n">
+        <v>1</v>
+      </c>
+      <c r="M376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="C377" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="D377" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="E377" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="F377" t="n">
+        <v>19125.9336</v>
+      </c>
+      <c r="G377" t="n">
+        <v>-1627225.576586422</v>
+      </c>
+      <c r="H377" t="n">
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L377" t="n">
+        <v>1</v>
+      </c>
+      <c r="M377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>24</v>
+      </c>
+      <c r="C378" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="D378" t="n">
+        <v>24</v>
+      </c>
+      <c r="E378" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="F378" t="n">
+        <v>61487.3807</v>
+      </c>
+      <c r="G378" t="n">
+        <v>-1688712.957286422</v>
+      </c>
+      <c r="H378" t="n">
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L378" t="n">
+        <v>1</v>
+      </c>
+      <c r="M378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>24</v>
+      </c>
+      <c r="C379" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="D379" t="n">
+        <v>24</v>
+      </c>
+      <c r="E379" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="F379" t="n">
+        <v>67420.8052</v>
+      </c>
+      <c r="G379" t="n">
+        <v>-1688712.957286422</v>
+      </c>
+      <c r="H379" t="n">
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L379" t="n">
+        <v>1</v>
+      </c>
+      <c r="M379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="C380" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="D380" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="E380" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="F380" t="n">
+        <v>37096.8555</v>
+      </c>
+      <c r="G380" t="n">
+        <v>-1688712.957286422</v>
+      </c>
+      <c r="H380" t="n">
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L380" t="n">
+        <v>1</v>
+      </c>
+      <c r="M380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="C381" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="D381" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="E381" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F381" t="n">
+        <v>1051.6139</v>
+      </c>
+      <c r="G381" t="n">
+        <v>-1689764.571186422</v>
+      </c>
+      <c r="H381" t="n">
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L381" t="n">
+        <v>1</v>
+      </c>
+      <c r="M381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="C382" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="D382" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="E382" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F382" t="n">
+        <v>5858.6126</v>
+      </c>
+      <c r="G382" t="n">
+        <v>-1683905.958586422</v>
+      </c>
+      <c r="H382" t="n">
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L382" t="n">
+        <v>1</v>
+      </c>
+      <c r="M382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="C383" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="D383" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="E383" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="F383" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G383" t="n">
+        <v>-1683905.958586422</v>
+      </c>
+      <c r="H383" t="n">
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L383" t="n">
+        <v>1</v>
+      </c>
+      <c r="M383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="C384" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="D384" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="E384" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="F384" t="n">
+        <v>4028.4171</v>
+      </c>
+      <c r="G384" t="n">
+        <v>-1683905.958586422</v>
+      </c>
+      <c r="H384" t="n">
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L384" t="n">
+        <v>1</v>
+      </c>
+      <c r="M384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="C385" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="D385" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="E385" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="F385" t="n">
+        <v>3995.3318</v>
+      </c>
+      <c r="G385" t="n">
+        <v>-1683905.958586422</v>
+      </c>
+      <c r="H385" t="n">
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L385" t="n">
+        <v>1</v>
+      </c>
+      <c r="M385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="C386" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="D386" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="E386" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="F386" t="n">
+        <v>2960.6472</v>
+      </c>
+      <c r="G386" t="n">
+        <v>-1683905.958586422</v>
+      </c>
+      <c r="H386" t="n">
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L386" t="n">
+        <v>1</v>
+      </c>
+      <c r="M386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="C387" t="n">
+        <v>24</v>
+      </c>
+      <c r="D387" t="n">
+        <v>24</v>
+      </c>
+      <c r="E387" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="F387" t="n">
+        <v>791.76265</v>
+      </c>
+      <c r="G387" t="n">
+        <v>-1683114.195936422</v>
+      </c>
+      <c r="H387" t="n">
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L387" t="n">
+        <v>1</v>
+      </c>
+      <c r="M387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="n">
+        <v>24</v>
+      </c>
+      <c r="C388" t="n">
+        <v>24</v>
+      </c>
+      <c r="D388" t="n">
+        <v>24</v>
+      </c>
+      <c r="E388" t="n">
+        <v>24</v>
+      </c>
+      <c r="F388" t="n">
+        <v>1582.1003</v>
+      </c>
+      <c r="G388" t="n">
+        <v>-1683114.195936422</v>
+      </c>
+      <c r="H388" t="n">
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L388" t="n">
+        <v>1</v>
+      </c>
+      <c r="M388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="n">
+        <v>24</v>
+      </c>
+      <c r="C389" t="n">
+        <v>24</v>
+      </c>
+      <c r="D389" t="n">
+        <v>24</v>
+      </c>
+      <c r="E389" t="n">
+        <v>24</v>
+      </c>
+      <c r="F389" t="n">
+        <v>718.0309999999999</v>
+      </c>
+      <c r="G389" t="n">
+        <v>-1683114.195936422</v>
+      </c>
+      <c r="H389" t="n">
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L389" t="n">
+        <v>1</v>
+      </c>
+      <c r="M389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="n">
+        <v>24</v>
+      </c>
+      <c r="C390" t="n">
+        <v>24</v>
+      </c>
+      <c r="D390" t="n">
+        <v>24</v>
+      </c>
+      <c r="E390" t="n">
+        <v>24</v>
+      </c>
+      <c r="F390" t="n">
+        <v>11144.1618</v>
+      </c>
+      <c r="G390" t="n">
+        <v>-1683114.195936422</v>
+      </c>
+      <c r="H390" t="n">
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L390" t="n">
+        <v>1</v>
+      </c>
+      <c r="M390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="n">
+        <v>24</v>
+      </c>
+      <c r="C391" t="n">
+        <v>24</v>
+      </c>
+      <c r="D391" t="n">
+        <v>24</v>
+      </c>
+      <c r="E391" t="n">
+        <v>24</v>
+      </c>
+      <c r="F391" t="n">
+        <v>34038.4282</v>
+      </c>
+      <c r="G391" t="n">
+        <v>-1683114.195936422</v>
+      </c>
+      <c r="H391" t="n">
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L391" t="n">
+        <v>1</v>
+      </c>
+      <c r="M391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="n">
+        <v>24</v>
+      </c>
+      <c r="C392" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="D392" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="E392" t="n">
+        <v>24</v>
+      </c>
+      <c r="F392" t="n">
+        <v>41062.719</v>
+      </c>
+      <c r="G392" t="n">
+        <v>-1642051.476936422</v>
+      </c>
+      <c r="H392" t="n">
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L392" t="n">
+        <v>1</v>
+      </c>
+      <c r="M392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="C393" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="D393" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="E393" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F393" t="n">
+        <v>4605.3719</v>
+      </c>
+      <c r="G393" t="n">
+        <v>-1642051.476936422</v>
+      </c>
+      <c r="H393" t="n">
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L393" t="n">
+        <v>1</v>
+      </c>
+      <c r="M393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="C394" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D394" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="E394" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F394" t="n">
+        <v>12544.2442</v>
+      </c>
+      <c r="G394" t="n">
+        <v>-1629507.232736422</v>
+      </c>
+      <c r="H394" t="n">
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L394" t="n">
+        <v>1</v>
+      </c>
+      <c r="M394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="C395" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="D395" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="E395" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="F395" t="n">
+        <v>79890.4381</v>
+      </c>
+      <c r="G395" t="n">
+        <v>-1549616.794636422</v>
+      </c>
+      <c r="H395" t="n">
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L395" t="n">
+        <v>1</v>
+      </c>
+      <c r="M395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="C396" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="D396" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="E396" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F396" t="n">
+        <v>67690.1106</v>
+      </c>
+      <c r="G396" t="n">
+        <v>-1617306.905236422</v>
+      </c>
+      <c r="H396" t="n">
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L396" t="n">
+        <v>1</v>
+      </c>
+      <c r="M396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="C397" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="D397" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E397" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="F397" t="n">
+        <v>91426.5499</v>
+      </c>
+      <c r="G397" t="n">
+        <v>-1617306.905236422</v>
+      </c>
+      <c r="H397" t="n">
         <v>2</v>
       </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K363" t="inlineStr">
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L363" t="n">
-        <v>1.016551724137931</v>
-      </c>
-      <c r="M363" t="inlineStr"/>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="C364" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="D364" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="E364" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="F364" t="n">
-        <v>14979.9783</v>
-      </c>
-      <c r="G364" t="n">
-        <v>-1771637.564086422</v>
-      </c>
-      <c r="H364" t="n">
-        <v>2</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
-      <c r="L364" t="n">
-        <v>1</v>
-      </c>
-      <c r="M364" t="inlineStr"/>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="C365" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="D365" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="E365" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="F365" t="n">
-        <v>14338.5667</v>
-      </c>
-      <c r="G365" t="n">
-        <v>-1757298.997386422</v>
-      </c>
-      <c r="H365" t="n">
-        <v>2</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
-      <c r="L365" t="n">
-        <v>1</v>
-      </c>
-      <c r="M365" t="inlineStr"/>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="C366" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="D366" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="E366" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="F366" t="n">
-        <v>23645.9135</v>
-      </c>
-      <c r="G366" t="n">
-        <v>-1733653.083886422</v>
-      </c>
-      <c r="H366" t="n">
-        <v>2</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
-      <c r="L366" t="n">
-        <v>1</v>
-      </c>
-      <c r="M366" t="inlineStr"/>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="C367" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="D367" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="E367" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="F367" t="n">
-        <v>40</v>
-      </c>
-      <c r="G367" t="n">
-        <v>-1733693.083886422</v>
-      </c>
-      <c r="H367" t="n">
-        <v>2</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
-      <c r="L367" t="n">
-        <v>1</v>
-      </c>
-      <c r="M367" t="inlineStr"/>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="C368" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="D368" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="E368" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="F368" t="n">
-        <v>3131.046</v>
-      </c>
-      <c r="G368" t="n">
-        <v>-1730562.037886422</v>
-      </c>
-      <c r="H368" t="n">
-        <v>2</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
-      <c r="L368" t="n">
-        <v>1</v>
-      </c>
-      <c r="M368" t="inlineStr"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>24</v>
-      </c>
-      <c r="C369" t="n">
-        <v>24</v>
-      </c>
-      <c r="D369" t="n">
-        <v>24</v>
-      </c>
-      <c r="E369" t="n">
-        <v>24</v>
-      </c>
-      <c r="F369" t="n">
-        <v>26000</v>
-      </c>
-      <c r="G369" t="n">
-        <v>-1704562.037886422</v>
-      </c>
-      <c r="H369" t="n">
-        <v>2</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
-      <c r="L369" t="n">
-        <v>1</v>
-      </c>
-      <c r="M369" t="inlineStr"/>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="C370" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="D370" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="E370" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="F370" t="n">
-        <v>13000</v>
-      </c>
-      <c r="G370" t="n">
-        <v>-1717562.037886422</v>
-      </c>
-      <c r="H370" t="n">
-        <v>2</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
-      <c r="L370" t="n">
-        <v>1</v>
-      </c>
-      <c r="M370" t="inlineStr"/>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="C371" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="D371" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="E371" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="F371" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G371" t="n">
-        <v>-1697562.037886422</v>
-      </c>
-      <c r="H371" t="n">
-        <v>2</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
-      <c r="L371" t="n">
-        <v>1</v>
-      </c>
-      <c r="M371" t="inlineStr"/>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="n">
-        <v>24</v>
-      </c>
-      <c r="C372" t="n">
-        <v>24</v>
-      </c>
-      <c r="D372" t="n">
-        <v>24</v>
-      </c>
-      <c r="E372" t="n">
-        <v>24</v>
-      </c>
-      <c r="F372" t="n">
-        <v>44600</v>
-      </c>
-      <c r="G372" t="n">
-        <v>-1652962.037886422</v>
-      </c>
-      <c r="H372" t="n">
-        <v>2</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
-      <c r="L372" t="n">
-        <v>1</v>
-      </c>
-      <c r="M372" t="inlineStr"/>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="n">
-        <v>24</v>
-      </c>
-      <c r="C373" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="D373" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="E373" t="n">
-        <v>24</v>
-      </c>
-      <c r="F373" t="n">
-        <v>13000</v>
-      </c>
-      <c r="G373" t="n">
-        <v>-1639962.037886422</v>
-      </c>
-      <c r="H373" t="n">
-        <v>2</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
-      <c r="L373" t="n">
-        <v>1</v>
-      </c>
-      <c r="M373" t="inlineStr"/>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="n">
-        <v>24</v>
-      </c>
-      <c r="C374" t="n">
-        <v>24</v>
-      </c>
-      <c r="D374" t="n">
-        <v>24</v>
-      </c>
-      <c r="E374" t="n">
-        <v>24</v>
-      </c>
-      <c r="F374" t="n">
-        <v>2835.5387</v>
-      </c>
-      <c r="G374" t="n">
-        <v>-1642797.576586422</v>
-      </c>
-      <c r="H374" t="n">
-        <v>2</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
-      <c r="L374" t="n">
-        <v>1</v>
-      </c>
-      <c r="M374" t="inlineStr"/>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="C375" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="D375" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="E375" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="F375" t="n">
-        <v>27888.9336</v>
-      </c>
-      <c r="G375" t="n">
-        <v>-1614908.642986421</v>
-      </c>
-      <c r="H375" t="n">
-        <v>2</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
-      <c r="L375" t="n">
-        <v>1</v>
-      </c>
-      <c r="M375" t="inlineStr"/>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="C376" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="D376" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="E376" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="F376" t="n">
-        <v>6809</v>
-      </c>
-      <c r="G376" t="n">
-        <v>-1608099.642986421</v>
-      </c>
-      <c r="H376" t="n">
-        <v>2</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
-      <c r="L376" t="n">
-        <v>1</v>
-      </c>
-      <c r="M376" t="inlineStr"/>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="C377" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="D377" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="E377" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="F377" t="n">
-        <v>19125.9336</v>
-      </c>
-      <c r="G377" t="n">
-        <v>-1627225.576586422</v>
-      </c>
-      <c r="H377" t="n">
-        <v>2</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
-      <c r="L377" t="n">
-        <v>1</v>
-      </c>
-      <c r="M377" t="inlineStr"/>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="n">
-        <v>24</v>
-      </c>
-      <c r="C378" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="D378" t="n">
-        <v>24</v>
-      </c>
-      <c r="E378" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="F378" t="n">
-        <v>61487.3807</v>
-      </c>
-      <c r="G378" t="n">
-        <v>-1688712.957286422</v>
-      </c>
-      <c r="H378" t="n">
-        <v>2</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
-      <c r="L378" t="n">
-        <v>1</v>
-      </c>
-      <c r="M378" t="inlineStr"/>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="n">
-        <v>24</v>
-      </c>
-      <c r="C379" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="D379" t="n">
-        <v>24</v>
-      </c>
-      <c r="E379" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="F379" t="n">
-        <v>67420.8052</v>
-      </c>
-      <c r="G379" t="n">
-        <v>-1688712.957286422</v>
-      </c>
-      <c r="H379" t="n">
-        <v>2</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
-      <c r="L379" t="n">
-        <v>1</v>
-      </c>
-      <c r="M379" t="inlineStr"/>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>378</v>
-      </c>
-      <c r="B380" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="C380" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="D380" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="E380" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="F380" t="n">
-        <v>37096.8555</v>
-      </c>
-      <c r="G380" t="n">
-        <v>-1688712.957286422</v>
-      </c>
-      <c r="H380" t="n">
-        <v>2</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
-      <c r="L380" t="n">
-        <v>1</v>
-      </c>
-      <c r="M380" t="inlineStr"/>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B381" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="C381" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="D381" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="E381" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="F381" t="n">
-        <v>1051.6139</v>
-      </c>
-      <c r="G381" t="n">
-        <v>-1689764.571186422</v>
-      </c>
-      <c r="H381" t="n">
-        <v>2</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
-      <c r="L381" t="n">
-        <v>1</v>
-      </c>
-      <c r="M381" t="inlineStr"/>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="B382" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="C382" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="D382" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="E382" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="F382" t="n">
-        <v>5858.6126</v>
-      </c>
-      <c r="G382" t="n">
-        <v>-1683905.958586422</v>
-      </c>
-      <c r="H382" t="n">
-        <v>2</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
-      <c r="L382" t="n">
-        <v>1</v>
-      </c>
-      <c r="M382" t="inlineStr"/>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
-        <v>381</v>
-      </c>
-      <c r="B383" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="C383" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="D383" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="E383" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="F383" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G383" t="n">
-        <v>-1683905.958586422</v>
-      </c>
-      <c r="H383" t="n">
-        <v>2</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
-      <c r="L383" t="n">
-        <v>1</v>
-      </c>
-      <c r="M383" t="inlineStr"/>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="B384" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="C384" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="D384" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="E384" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="F384" t="n">
-        <v>4028.4171</v>
-      </c>
-      <c r="G384" t="n">
-        <v>-1683905.958586422</v>
-      </c>
-      <c r="H384" t="n">
-        <v>2</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
-      <c r="L384" t="n">
-        <v>1</v>
-      </c>
-      <c r="M384" t="inlineStr"/>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
-        <v>383</v>
-      </c>
-      <c r="B385" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="C385" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="D385" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="E385" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="F385" t="n">
-        <v>3995.3318</v>
-      </c>
-      <c r="G385" t="n">
-        <v>-1683905.958586422</v>
-      </c>
-      <c r="H385" t="n">
-        <v>2</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
-      <c r="L385" t="n">
-        <v>1</v>
-      </c>
-      <c r="M385" t="inlineStr"/>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
-        <v>384</v>
-      </c>
-      <c r="B386" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="C386" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="D386" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="E386" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="F386" t="n">
-        <v>2960.6472</v>
-      </c>
-      <c r="G386" t="n">
-        <v>-1683905.958586422</v>
-      </c>
-      <c r="H386" t="n">
-        <v>2</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
-      <c r="L386" t="n">
-        <v>1</v>
-      </c>
-      <c r="M386" t="inlineStr"/>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
-        <v>385</v>
-      </c>
-      <c r="B387" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="C387" t="n">
-        <v>24</v>
-      </c>
-      <c r="D387" t="n">
-        <v>24</v>
-      </c>
-      <c r="E387" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="F387" t="n">
-        <v>791.76265</v>
-      </c>
-      <c r="G387" t="n">
-        <v>-1683114.195936422</v>
-      </c>
-      <c r="H387" t="n">
-        <v>2</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
-      <c r="L387" t="n">
-        <v>1</v>
-      </c>
-      <c r="M387" t="inlineStr"/>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
-        <v>386</v>
-      </c>
-      <c r="B388" t="n">
-        <v>24</v>
-      </c>
-      <c r="C388" t="n">
-        <v>24</v>
-      </c>
-      <c r="D388" t="n">
-        <v>24</v>
-      </c>
-      <c r="E388" t="n">
-        <v>24</v>
-      </c>
-      <c r="F388" t="n">
-        <v>1582.1003</v>
-      </c>
-      <c r="G388" t="n">
-        <v>-1683114.195936422</v>
-      </c>
-      <c r="H388" t="n">
-        <v>2</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
-      <c r="L388" t="n">
-        <v>1</v>
-      </c>
-      <c r="M388" t="inlineStr"/>
-    </row>
-    <row r="389">
-      <c r="A389" s="1" t="n">
-        <v>387</v>
-      </c>
-      <c r="B389" t="n">
-        <v>24</v>
-      </c>
-      <c r="C389" t="n">
-        <v>24</v>
-      </c>
-      <c r="D389" t="n">
-        <v>24</v>
-      </c>
-      <c r="E389" t="n">
-        <v>24</v>
-      </c>
-      <c r="F389" t="n">
-        <v>718.0309999999999</v>
-      </c>
-      <c r="G389" t="n">
-        <v>-1683114.195936422</v>
-      </c>
-      <c r="H389" t="n">
-        <v>2</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
-      <c r="L389" t="n">
-        <v>1</v>
-      </c>
-      <c r="M389" t="inlineStr"/>
-    </row>
-    <row r="390">
-      <c r="A390" s="1" t="n">
-        <v>388</v>
-      </c>
-      <c r="B390" t="n">
-        <v>24</v>
-      </c>
-      <c r="C390" t="n">
-        <v>24</v>
-      </c>
-      <c r="D390" t="n">
-        <v>24</v>
-      </c>
-      <c r="E390" t="n">
-        <v>24</v>
-      </c>
-      <c r="F390" t="n">
-        <v>11144.1618</v>
-      </c>
-      <c r="G390" t="n">
-        <v>-1683114.195936422</v>
-      </c>
-      <c r="H390" t="n">
-        <v>2</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
-      <c r="L390" t="n">
-        <v>1</v>
-      </c>
-      <c r="M390" t="inlineStr"/>
-    </row>
-    <row r="391">
-      <c r="A391" s="1" t="n">
-        <v>389</v>
-      </c>
-      <c r="B391" t="n">
-        <v>24</v>
-      </c>
-      <c r="C391" t="n">
-        <v>24</v>
-      </c>
-      <c r="D391" t="n">
-        <v>24</v>
-      </c>
-      <c r="E391" t="n">
-        <v>24</v>
-      </c>
-      <c r="F391" t="n">
-        <v>34038.4282</v>
-      </c>
-      <c r="G391" t="n">
-        <v>-1683114.195936422</v>
-      </c>
-      <c r="H391" t="n">
-        <v>2</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
-      <c r="L391" t="n">
-        <v>1</v>
-      </c>
-      <c r="M391" t="inlineStr"/>
-    </row>
-    <row r="392">
-      <c r="A392" s="1" t="n">
-        <v>390</v>
-      </c>
-      <c r="B392" t="n">
-        <v>24</v>
-      </c>
-      <c r="C392" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="D392" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="E392" t="n">
-        <v>24</v>
-      </c>
-      <c r="F392" t="n">
-        <v>41062.719</v>
-      </c>
-      <c r="G392" t="n">
-        <v>-1642051.476936422</v>
-      </c>
-      <c r="H392" t="n">
-        <v>2</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
-      <c r="L392" t="n">
-        <v>1</v>
-      </c>
-      <c r="M392" t="inlineStr"/>
-    </row>
-    <row r="393">
-      <c r="A393" s="1" t="n">
-        <v>391</v>
-      </c>
-      <c r="B393" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="C393" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="D393" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="E393" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="F393" t="n">
-        <v>4605.3719</v>
-      </c>
-      <c r="G393" t="n">
-        <v>-1642051.476936422</v>
-      </c>
-      <c r="H393" t="n">
-        <v>2</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
-      <c r="L393" t="n">
-        <v>1</v>
-      </c>
-      <c r="M393" t="inlineStr"/>
-    </row>
-    <row r="394">
-      <c r="A394" s="1" t="n">
-        <v>392</v>
-      </c>
-      <c r="B394" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="C394" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="D394" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="E394" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="F394" t="n">
-        <v>12544.2442</v>
-      </c>
-      <c r="G394" t="n">
-        <v>-1629507.232736422</v>
-      </c>
-      <c r="H394" t="n">
-        <v>2</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
-      <c r="L394" t="n">
-        <v>1</v>
-      </c>
-      <c r="M394" t="inlineStr"/>
-    </row>
-    <row r="395">
-      <c r="A395" s="1" t="n">
-        <v>393</v>
-      </c>
-      <c r="B395" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="C395" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="D395" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="E395" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="F395" t="n">
-        <v>79890.4381</v>
-      </c>
-      <c r="G395" t="n">
-        <v>-1549616.794636422</v>
-      </c>
-      <c r="H395" t="n">
-        <v>2</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
-      <c r="L395" t="n">
-        <v>1</v>
-      </c>
-      <c r="M395" t="inlineStr"/>
-    </row>
-    <row r="396">
-      <c r="A396" s="1" t="n">
-        <v>394</v>
-      </c>
-      <c r="B396" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="C396" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="D396" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="E396" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="F396" t="n">
-        <v>67690.1106</v>
-      </c>
-      <c r="G396" t="n">
-        <v>-1617306.905236422</v>
-      </c>
-      <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
-      <c r="L396" t="n">
-        <v>1</v>
-      </c>
-      <c r="M396" t="inlineStr"/>
-    </row>
-    <row r="397">
-      <c r="A397" s="1" t="n">
-        <v>395</v>
-      </c>
-      <c r="B397" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="C397" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="D397" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="E397" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="F397" t="n">
-        <v>91426.5499</v>
-      </c>
-      <c r="G397" t="n">
-        <v>-1617306.905236422</v>
-      </c>
-      <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
-      <c r="L397" t="n">
-        <v>1</v>
-      </c>
+      <c r="L397" t="inlineStr"/>
       <c r="M397" t="inlineStr"/>
     </row>
     <row r="398">
@@ -13790,7 +14066,7 @@
         <v>-1644146.941436422</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13823,7 +14099,7 @@
         <v>-1738345.536036422</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14054,7 +14330,7 @@
         <v>-1375281.579836422</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14087,7 +14363,7 @@
         <v>-1616568.450636422</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14351,7 +14627,7 @@
         <v>-1005276.502355469</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14384,7 +14660,7 @@
         <v>-1479486.680155469</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14417,7 +14693,7 @@
         <v>-1472519.342155469</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14450,7 +14726,7 @@
         <v>-1481697.872755469</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15176,7 +15452,7 @@
         <v>-2373043.113155469</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
